--- a/Import_Product/import_product_expens.xlsx
+++ b/Import_Product/import_product_expens.xlsx
@@ -12,11 +12,11 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="done" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$426</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">done!$A$1:$AC$426</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="1408">
   <si>
     <t>SET</t>
   </si>
@@ -3187,6 +3187,1071 @@
   </si>
   <si>
     <t>อุปกรณ์ไอที สำหรับใช้ซ่อมแซม อัพเกรด อุปกรณ์ไอทีต่างๆ เช่น (Harddisk, RAM, Powersupply)</t>
+  </si>
+  <si>
+    <t>All / 6-EXPENSE / ค่าใช้จ่ายการตลาด / ค่าส่งเสริมการขาย(Sale Promotion) / ค่าสินค้า Premium Mass</t>
+  </si>
+  <si>
+    <t>All / 6-EXPENSE / ค่าใช้จ่ายการตลาด / ค่าส่งเสริมการขาย(Sale Promotion) / ค่าสินค้า Premium Mass / Give Away และค่าจัดส่ง</t>
+  </si>
+  <si>
+    <t>All / 6-EXPENSE / ค่าใช้จ่ายการตลาด / ค่าส่งเสริมการขาย(Sale Promotion) / ป้ายPOP / Injet งาน EVENT / งานแสดงสินค้า</t>
+  </si>
+  <si>
+    <t>All / 6-EXPENSE / ค่าใช้จ่ายการตลาด / ค่าส่งเสริมการขาย(Sale Promotion) / อื่นๆ (ส่งเสริมการขาย)</t>
+  </si>
+  <si>
+    <t>All / 8-ASSET / อาคารและทรัพย์สินอื่น / เครื่องจักร</t>
+  </si>
+  <si>
+    <t>All / 8-ASSET / อาคารและทรัพย์สินอื่น / เครื่องจักร / เครื่องจักร-Void</t>
+  </si>
+  <si>
+    <t>All / 8-ASSET / อาคารและทรัพย์สินอื่น / เครื่องจักร / เครื่องจักร-งานบันได</t>
+  </si>
+  <si>
+    <t>All / 8-ASSET / อาคารและทรัพย์สินอื่น / เครื่องจักร / เครื่องจักร-งานเฟอร์นิเจอร์</t>
+  </si>
+  <si>
+    <t>All / 8-ASSET / อาคารและทรัพย์สินอื่น / เครื่องจักร / เครื่องจักร-แผ่นพื้น</t>
+  </si>
+  <si>
+    <t>All / 8-ASSET / อาคารและทรัพย์สินอื่น / เครื่องตกแต่งและเครื่องใช้สำนักงาน / ส่งเสริมการขาย</t>
+  </si>
+  <si>
+    <t>All / 8-ASSET / อาคารและทรัพย์สินอื่น / เครื่องตกแต่งและเครื่องใช้สำนักงาน / อุปกรณ์เกี่ยวกับการไลฟ์</t>
+  </si>
+  <si>
+    <t>GIFT VOUCHER LOTUS ใบละ 100 บาท</t>
+  </si>
+  <si>
+    <t>ค่าสินค้า Premium Mass / Give Away และค่าจัดส่ง</t>
+  </si>
+  <si>
+    <t>ป้ายPOP / Injet งาน EVENT / งานแสดงสินค้า</t>
+  </si>
+  <si>
+    <t>Alcohol Spray 30 ml.</t>
+  </si>
+  <si>
+    <t>Alcohol Spray Organics 77.7 % 30 ml.</t>
+  </si>
+  <si>
+    <t>Catalog Mogen 2024</t>
+  </si>
+  <si>
+    <t>Catalog Retail 2023</t>
+  </si>
+  <si>
+    <t>Central 200 บาท</t>
+  </si>
+  <si>
+    <t>MOGEN Travel Bag (กระเป๋าล้อลาก คละสี)</t>
+  </si>
+  <si>
+    <t>SET ป้าย X-Stand (แบบที่ 1)</t>
+  </si>
+  <si>
+    <t>SET ป้าย X-Stand (แบบที่ 2)</t>
+  </si>
+  <si>
+    <t>Chart Material Lafur 2022</t>
+  </si>
+  <si>
+    <t>Chart Material Surface 2019</t>
+  </si>
+  <si>
+    <t>Chart Melamine 2022</t>
+  </si>
+  <si>
+    <t>STARBUCK 100 บาท</t>
+  </si>
+  <si>
+    <t>TESTOBJNAME</t>
+  </si>
+  <si>
+    <t>กรอบอะคริลิคแนวตั้ง A4 (1 ด้าน)</t>
+  </si>
+  <si>
+    <t>กระดาษโน๊ต 057</t>
+  </si>
+  <si>
+    <t>กระดาษโน๊ต 385</t>
+  </si>
+  <si>
+    <t>กระบอกน้ำสแตนเลส 350 ml สกรีนโลโก้ MOGEN</t>
+  </si>
+  <si>
+    <t>กระเป๋า Black magic bag</t>
+  </si>
+  <si>
+    <t>กระเป๋า Minimal tote bag</t>
+  </si>
+  <si>
+    <t>กระเป๋า MOGEN BAG (ใบไม้)</t>
+  </si>
+  <si>
+    <t>กระเป๋ากระสอบใหญ่</t>
+  </si>
+  <si>
+    <t>กล่องผ้ามินิมอลบอลลูน</t>
+  </si>
+  <si>
+    <t>กล่องอะคิริคจับรางวัล</t>
+  </si>
+  <si>
+    <t>เกมส์วงล้อ(เล็ก)</t>
+  </si>
+  <si>
+    <t>เกมส์วงล้อใหญ่</t>
+  </si>
+  <si>
+    <t>ขวดน้ำลายพาเทล</t>
+  </si>
+  <si>
+    <t>ขา X-Stand</t>
+  </si>
+  <si>
+    <t>ขาตั้ง กล้องถ่ายรูป</t>
+  </si>
+  <si>
+    <t>ขาล็อคโทรศัพท์มือถือ</t>
+  </si>
+  <si>
+    <t>ค่าบริหารสต็อกสินค้า</t>
+  </si>
+  <si>
+    <t>เครื่องดูดฝุ่นไร้สาย ขนาดพกพา</t>
+  </si>
+  <si>
+    <t>เครื่องวัดระยะด้วยเลเซอร์อัจฉริยะ</t>
+  </si>
+  <si>
+    <t>ชุด SET ของขวัญ EXecutive Aug-Sep 2023</t>
+  </si>
+  <si>
+    <t>ชุด SET ของขวัญ EXecutive Jan-Jun 2023</t>
+  </si>
+  <si>
+    <t>ชุด SET ของขวัญ VIP Aug-Sep 2023</t>
+  </si>
+  <si>
+    <t>ชุดลูกโป่งตกแต่งบูธกิจกรรม (13ก้าน/ชุด)</t>
+  </si>
+  <si>
+    <t>ชุดลูกโป่งตกแต่งบูธกิจกรรม (7ก้าน/ชุด)</t>
+  </si>
+  <si>
+    <t>ชุดอุปกรณ์ทำขนม</t>
+  </si>
+  <si>
+    <t>ดอกกุหลาบยักษ์</t>
+  </si>
+  <si>
+    <t>ตะกร้าผ้าสีพาสเทลพร้อมฝาปิด</t>
+  </si>
+  <si>
+    <t>ที่ยกฝารองนั่ง สกรีนโลโก้ MOGEN</t>
+  </si>
+  <si>
+    <t>เบาะรองนั่ง</t>
+  </si>
+  <si>
+    <t>ปลั๊ก 3 ตาแปลง MOGEN IOThing</t>
+  </si>
+  <si>
+    <t>ปากกาลายไม้ Eco</t>
+  </si>
+  <si>
+    <t>ปากกาแอลกอฮอล์ สกรีนMOGEN</t>
+  </si>
+  <si>
+    <t>ป้าย Promotion Event (ใหญ่)</t>
+  </si>
+  <si>
+    <t>ป้ายไวนิล Backdrop IOThing's</t>
+  </si>
+  <si>
+    <t>ผ้าคลุมโต๊ะ (สีขาว)</t>
+  </si>
+  <si>
+    <t>ผ้าคลุมโต๊ะ (สีเขียว)</t>
+  </si>
+  <si>
+    <t>ผ้าคลุมโต๊ะ (สีแดง)</t>
+  </si>
+  <si>
+    <t>แผ่นอะคริลิคกรอบ T-Stand A4</t>
+  </si>
+  <si>
+    <t>แฟรชไดร์ฟ (ข้อมูลสินค้า)สีม่วง</t>
+  </si>
+  <si>
+    <t>ไมโครโฟนไร้สาย</t>
+  </si>
+  <si>
+    <t>รถเข็นโนเบิลลิฟ</t>
+  </si>
+  <si>
+    <t>ร่มMogen สีกรม</t>
+  </si>
+  <si>
+    <t>ร่มMogen สีเขียว</t>
+  </si>
+  <si>
+    <t>ลำโพง Xiaomi Mi Compact</t>
+  </si>
+  <si>
+    <t>สเปรย์ฆ่าเชื้อโรคฝารองนั่งสุขภัณฑ์ 3 มล.</t>
+  </si>
+  <si>
+    <t>สมุดเล่มเล็ก ลายวงกลม</t>
+  </si>
+  <si>
+    <t>สร้อยคอทองคำ 1 สลึง</t>
+  </si>
+  <si>
+    <t>เสื้อMogen Mela plus T-Shirt สีขาว</t>
+  </si>
+  <si>
+    <t>เสื้อMogen Mela plus T-Shirt สีดำ</t>
+  </si>
+  <si>
+    <t>หญ้าเทียมแผ่น</t>
+  </si>
+  <si>
+    <t>หน้ากากอนามัย MOGEN</t>
+  </si>
+  <si>
+    <t>อื่นๆ (ส่งเสริมการขาย)</t>
+  </si>
+  <si>
+    <t>อุปกรณ์ตกแต่งวันสงกรานต์</t>
+  </si>
+  <si>
+    <t>รายการสั่งซื้อกลุ่ม "เครื่องมือ และ/หรือ เครื่องจักร"</t>
+  </si>
+  <si>
+    <t>เครื่องจักร-Void</t>
+  </si>
+  <si>
+    <t>เครื่องจักร-งานบันได</t>
+  </si>
+  <si>
+    <t>เครื่องจักร-งานเฟอร์นิเจอร์</t>
+  </si>
+  <si>
+    <t>เครื่องจักร-แผ่นพื้น</t>
+  </si>
+  <si>
+    <t>Backdrop Set Size Big (B001)</t>
+  </si>
+  <si>
+    <t>Backdrop Set Size Big (B002)</t>
+  </si>
+  <si>
+    <t>Counter Set (C001)</t>
+  </si>
+  <si>
+    <t>Counter Set (C002)</t>
+  </si>
+  <si>
+    <t>Rollup Set (R001)</t>
+  </si>
+  <si>
+    <t>Rollup Set (R002)</t>
+  </si>
+  <si>
+    <t>Rollup Set (R003)</t>
+  </si>
+  <si>
+    <t>Rollup Set (R004)</t>
+  </si>
+  <si>
+    <t>อุปกรณ์เกี่ยวกับการไลฟ์</t>
+  </si>
+  <si>
+    <t>KIOS NEW STAND L-150</t>
+  </si>
+  <si>
+    <t>KIOS NEW STAND T-150</t>
+  </si>
+  <si>
+    <t>Kiosk Alauno</t>
+  </si>
+  <si>
+    <t>Kiosk Sart Tolat</t>
+  </si>
+  <si>
+    <t>HSM1070</t>
+  </si>
+  <si>
+    <t>HSM1069</t>
+  </si>
+  <si>
+    <t>HSM1126</t>
+  </si>
+  <si>
+    <t>HSM1081</t>
+  </si>
+  <si>
+    <t>HSM1117</t>
+  </si>
+  <si>
+    <t>HSM1087</t>
+  </si>
+  <si>
+    <t>HSM1140</t>
+  </si>
+  <si>
+    <t>HSM1141</t>
+  </si>
+  <si>
+    <t>HSM1124</t>
+  </si>
+  <si>
+    <t>HSM1125</t>
+  </si>
+  <si>
+    <t>HSM1123</t>
+  </si>
+  <si>
+    <t>HSM1118</t>
+  </si>
+  <si>
+    <t>HSM1143</t>
+  </si>
+  <si>
+    <t>HSM1136</t>
+  </si>
+  <si>
+    <t>HSM1131</t>
+  </si>
+  <si>
+    <t>HSM1132</t>
+  </si>
+  <si>
+    <t>HSM1138</t>
+  </si>
+  <si>
+    <t>HSM1122</t>
+  </si>
+  <si>
+    <t>HSM1121</t>
+  </si>
+  <si>
+    <t>HSM1120</t>
+  </si>
+  <si>
+    <t>HSM1119</t>
+  </si>
+  <si>
+    <t>HSM1090</t>
+  </si>
+  <si>
+    <t>HSM1100</t>
+  </si>
+  <si>
+    <t>HSM1099</t>
+  </si>
+  <si>
+    <t>HSM1098</t>
+  </si>
+  <si>
+    <t>HSM1139</t>
+  </si>
+  <si>
+    <t>HSM1142</t>
+  </si>
+  <si>
+    <t>HSM1114</t>
+  </si>
+  <si>
+    <t>HSM1115</t>
+  </si>
+  <si>
+    <t>SEL53</t>
+  </si>
+  <si>
+    <t>HSM1088</t>
+  </si>
+  <si>
+    <t>HSM1089</t>
+  </si>
+  <si>
+    <t>HSM1096</t>
+  </si>
+  <si>
+    <t>HSM1097</t>
+  </si>
+  <si>
+    <t>HSM1137</t>
+  </si>
+  <si>
+    <t>HSM1116</t>
+  </si>
+  <si>
+    <t>HSM1109</t>
+  </si>
+  <si>
+    <t>HSM1102</t>
+  </si>
+  <si>
+    <t>HSM1107</t>
+  </si>
+  <si>
+    <t>HSM1082</t>
+  </si>
+  <si>
+    <t>HSM1086</t>
+  </si>
+  <si>
+    <t>HSM1130</t>
+  </si>
+  <si>
+    <t>HSM1083</t>
+  </si>
+  <si>
+    <t>HSM1129</t>
+  </si>
+  <si>
+    <t>HSM1071</t>
+  </si>
+  <si>
+    <t>HSM1133</t>
+  </si>
+  <si>
+    <t>HSM1134</t>
+  </si>
+  <si>
+    <t>HSM1105</t>
+  </si>
+  <si>
+    <t>HSM1104</t>
+  </si>
+  <si>
+    <t>HSM1103</t>
+  </si>
+  <si>
+    <t>HSM1135</t>
+  </si>
+  <si>
+    <t>HSM1128</t>
+  </si>
+  <si>
+    <t>HSM1111</t>
+  </si>
+  <si>
+    <t>HSM1106</t>
+  </si>
+  <si>
+    <t>HSM1092</t>
+  </si>
+  <si>
+    <t>HSM1091</t>
+  </si>
+  <si>
+    <t>HSM1085</t>
+  </si>
+  <si>
+    <t>HSM1072</t>
+  </si>
+  <si>
+    <t>HSM1127</t>
+  </si>
+  <si>
+    <t>HSM1093</t>
+  </si>
+  <si>
+    <t>HSM1094</t>
+  </si>
+  <si>
+    <t>HSM1095</t>
+  </si>
+  <si>
+    <t>HSM1110</t>
+  </si>
+  <si>
+    <t>HSM1084</t>
+  </si>
+  <si>
+    <t>HSM1108</t>
+  </si>
+  <si>
+    <t>EXP000107</t>
+  </si>
+  <si>
+    <t>HSM1073</t>
+  </si>
+  <si>
+    <t>HSM1074</t>
+  </si>
+  <si>
+    <t>HSM1075</t>
+  </si>
+  <si>
+    <t>HSM1076</t>
+  </si>
+  <si>
+    <t>HSM1077</t>
+  </si>
+  <si>
+    <t>HSM1078</t>
+  </si>
+  <si>
+    <t>HSM1079</t>
+  </si>
+  <si>
+    <t>HSM1080</t>
+  </si>
+  <si>
+    <t>KIOSL150001</t>
+  </si>
+  <si>
+    <t>KIOST150001</t>
+  </si>
+  <si>
+    <t>KIOSAL00001</t>
+  </si>
+  <si>
+    <t>KIOSSM00001</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>MKT0001</t>
+  </si>
+  <si>
+    <t>MKT0002</t>
+  </si>
+  <si>
+    <t>MKT0003</t>
+  </si>
+  <si>
+    <t>MKT0004</t>
+  </si>
+  <si>
+    <t>MKT0005</t>
+  </si>
+  <si>
+    <t>MKT0006</t>
+  </si>
+  <si>
+    <t>MKT0007</t>
+  </si>
+  <si>
+    <t>MKT0008</t>
+  </si>
+  <si>
+    <t>MKT0009</t>
+  </si>
+  <si>
+    <t>MKT0010</t>
+  </si>
+  <si>
+    <t>MKT0011</t>
+  </si>
+  <si>
+    <t>MKT0012</t>
+  </si>
+  <si>
+    <t>MKT0013</t>
+  </si>
+  <si>
+    <t>MKT0014</t>
+  </si>
+  <si>
+    <t>MKT0015</t>
+  </si>
+  <si>
+    <t>MKT0016</t>
+  </si>
+  <si>
+    <t>MKT0017</t>
+  </si>
+  <si>
+    <t>MKT0018</t>
+  </si>
+  <si>
+    <t>MKT0019</t>
+  </si>
+  <si>
+    <t>MKT0020</t>
+  </si>
+  <si>
+    <t>MKT0021</t>
+  </si>
+  <si>
+    <t>MKT0022</t>
+  </si>
+  <si>
+    <t>MKT0023</t>
+  </si>
+  <si>
+    <t>MKT0024</t>
+  </si>
+  <si>
+    <t>MKT0025</t>
+  </si>
+  <si>
+    <t>MKT0026</t>
+  </si>
+  <si>
+    <t>MKT0027</t>
+  </si>
+  <si>
+    <t>MKT0028</t>
+  </si>
+  <si>
+    <t>MKT0029</t>
+  </si>
+  <si>
+    <t>MKT0030</t>
+  </si>
+  <si>
+    <t>MKT0031</t>
+  </si>
+  <si>
+    <t>MKT0032</t>
+  </si>
+  <si>
+    <t>MKT0033</t>
+  </si>
+  <si>
+    <t>MKT0034</t>
+  </si>
+  <si>
+    <t>MKT0035</t>
+  </si>
+  <si>
+    <t>MKT0036</t>
+  </si>
+  <si>
+    <t>MKT0037</t>
+  </si>
+  <si>
+    <t>MKT0038</t>
+  </si>
+  <si>
+    <t>MKT0039</t>
+  </si>
+  <si>
+    <t>MKT0040</t>
+  </si>
+  <si>
+    <t>MKT0041</t>
+  </si>
+  <si>
+    <t>MKT0042</t>
+  </si>
+  <si>
+    <t>MKT0043</t>
+  </si>
+  <si>
+    <t>MKT0044</t>
+  </si>
+  <si>
+    <t>MKT0045</t>
+  </si>
+  <si>
+    <t>MKT0046</t>
+  </si>
+  <si>
+    <t>MKT0047</t>
+  </si>
+  <si>
+    <t>MKT0048</t>
+  </si>
+  <si>
+    <t>MKT0049</t>
+  </si>
+  <si>
+    <t>MKT0050</t>
+  </si>
+  <si>
+    <t>MKT0051</t>
+  </si>
+  <si>
+    <t>MKT0052</t>
+  </si>
+  <si>
+    <t>MKT0053</t>
+  </si>
+  <si>
+    <t>MKT0054</t>
+  </si>
+  <si>
+    <t>MKT0055</t>
+  </si>
+  <si>
+    <t>MKT0056</t>
+  </si>
+  <si>
+    <t>MKT0057</t>
+  </si>
+  <si>
+    <t>MKT0058</t>
+  </si>
+  <si>
+    <t>MKT0059</t>
+  </si>
+  <si>
+    <t>MKT0060</t>
+  </si>
+  <si>
+    <t>MKT0061</t>
+  </si>
+  <si>
+    <t>MKT0062</t>
+  </si>
+  <si>
+    <t>MKT0063</t>
+  </si>
+  <si>
+    <t>MKT0064</t>
+  </si>
+  <si>
+    <t>MKT0065</t>
+  </si>
+  <si>
+    <t>MKT0066</t>
+  </si>
+  <si>
+    <t>MKT0067</t>
+  </si>
+  <si>
+    <t>MKT0068</t>
+  </si>
+  <si>
+    <t>MKT0069</t>
+  </si>
+  <si>
+    <t>All / 2-FG-Production / บันไดสำเร็จรูป / ราวบันไดเหล็ก+ไม้</t>
+  </si>
+  <si>
+    <t>All / 2-FG-Production / บันไดสำเร็จรูป / โครงบันไดเหล็ก</t>
+  </si>
+  <si>
+    <t>All / 2-FG-Production / บันไดสำเร็จรูป / ไม้ SPC</t>
+  </si>
+  <si>
+    <t>All / 3-SEMI / โครงเหล็กตู้เฟอร์นิเจอร์ / 01 โครงเหล็ก</t>
+  </si>
+  <si>
+    <t>All / 4-RM / 06 ขอบ / PVC</t>
+  </si>
+  <si>
+    <t>All / 4-RM / 04 ผิว / PVC</t>
+  </si>
+  <si>
+    <t>All / 3-SEMI / แผ่นสำเร็จปิดผิว / พลาสวู้ด</t>
+  </si>
+  <si>
+    <t>All / 4-RM / 03 แผ่นสำเร็จรูป / SPC</t>
+  </si>
+  <si>
+    <t>All / 4-RM / 03 แผ่นสำเร็จรูป / อื่นๆ</t>
+  </si>
+  <si>
+    <t>All / 4-RM / 13 กล่อง / กระดาษ</t>
+  </si>
+  <si>
+    <t>All / 4-RM / 19 ระบบไฟฟ้า</t>
+  </si>
+  <si>
+    <t>All / 4-RM / 18 อลูมิเนียม-สแตนเลสเส้น</t>
+  </si>
+  <si>
+    <t>All / 4-RM / 11 เคมี / เคมี</t>
+  </si>
+  <si>
+    <t>All / 6-EXPENSE / ต้นทุนสินค้า / ค่าจ้างปิดผิว / ค่าจ้างปิดผิวพลาสวู้ด</t>
+  </si>
+  <si>
+    <t>ราวลอย A Forest TYPE-K BK L</t>
+  </si>
+  <si>
+    <t>ราวลอย B Forest TYPE-K BK L</t>
+  </si>
+  <si>
+    <t>ราว A Forest TYPE-I BK</t>
+  </si>
+  <si>
+    <t>ราวกันตก Forest TYPE-I BK</t>
+  </si>
+  <si>
+    <t>ราว B Forest TYPE-I BK</t>
+  </si>
+  <si>
+    <t>โครงบันไดวน แบบบ้าน Forest TYPE K BK L</t>
+  </si>
+  <si>
+    <t>ไม้บันได SPC TOP 120x1000x9 สี F22-15</t>
+  </si>
+  <si>
+    <t>ไม้บันได SPC ชานพัก 1210x1100x26 สี F22-15</t>
+  </si>
+  <si>
+    <t>ไม้บันได SPC ชานพัก 1210x2050x26 สี F22-15</t>
+  </si>
+  <si>
+    <t>ไม้บันได SPC จมููกลูกนอน 130x1220x26 สี F22-15</t>
+  </si>
+  <si>
+    <t>ไม้บันได SPC ชานพัก 1390x1100x26 สี F22-15</t>
+  </si>
+  <si>
+    <t>ไม้บันได SPC ลูกตั้ง 180x1050x8 สี F22-15</t>
+  </si>
+  <si>
+    <t>ไม้บันได SPC ลูกตั้ง 192x1050x8 สี F22-15</t>
+  </si>
+  <si>
+    <t>ไม้บันได SPC ลูกตั้ง 220x1050x8 สี F22-15</t>
+  </si>
+  <si>
+    <t>ไม้บันได SPC ลูกนอน 250x1050x26 สี F22-15</t>
+  </si>
+  <si>
+    <t>โครงเหล็ก ขนาด 760x400x200 สีขาว</t>
+  </si>
+  <si>
+    <t>โครงเหล็ก ขนาด 32x290x290 สีขาว</t>
+  </si>
+  <si>
+    <t>โครงเหล็ก ขนาด 40x450x90 L สีขาว</t>
+  </si>
+  <si>
+    <t>โครงเหล็ก ขนาด 40x450x90 R สีขาว</t>
+  </si>
+  <si>
+    <t>โครงเหล็ก ขนาด 764x350x350 สีขาว</t>
+  </si>
+  <si>
+    <t>ขอบ PVC สี 98-B14582 (เทียบสี Melamine Honey Elm,BJ3 Panelplus) กว้าง 29 mm. หนา 1 mm. ยาว 200 m.</t>
+  </si>
+  <si>
+    <t>ขอบ PVC สี 89-0389 กว้าง 19 mm. หนา 0.5 mm. ยาว 200 m.</t>
+  </si>
+  <si>
+    <t>ขอบ PVC สี 89-0389 กว้าง 29 mm. หนา 0.5 mm. ยาว 200 m.</t>
+  </si>
+  <si>
+    <t>ขอบ PVC สี 98-B14TG623 (เทียบสี สีลายไม้ #322(MANDOM)) กว้าง 19 mm. หนา 1 mm. ยาว 200 m.</t>
+  </si>
+  <si>
+    <t>ขอบ PVC สี 98-B14TG897 (เทียบสี สีลายไม้ #330(MANDOM)) กว้าง 19 mm. หนา 1 mm. ยาว 200 m.</t>
+  </si>
+  <si>
+    <t>ขอบ PVC สี 98-B14TG897 (เทียบสี สีลายไม้ #330(MANDOM)) กว้าง 29 mm. หนา 1 mm. ยาว 200 m.</t>
+  </si>
+  <si>
+    <t>ผิว PVC สี 330 หนา 0.12 mm.</t>
+  </si>
+  <si>
+    <t>ผิว PVC สี 322 หนา 0.12 mm</t>
+  </si>
+  <si>
+    <t>พลาสวู้ด 1220x2440x15 ปิดผิว PVC สี 330</t>
+  </si>
+  <si>
+    <t>พลาสวู้ด 1220x2440x4 ปิดผิว PVC สี 330</t>
+  </si>
+  <si>
+    <t>พลาสวู้ด 1220x2440x15 ปิดผิว PVC สี 322</t>
+  </si>
+  <si>
+    <t>SPC ขนาด 1200x2440x3 สี ลายหินเทา 073-HC88112</t>
+  </si>
+  <si>
+    <t>SPC ขนาด 1200x2440x3 สี ลายหินอ่อน 073-HC88108</t>
+  </si>
+  <si>
+    <t>แผ่นระแนงไม้ WPC ขนาด 150x2900x12 สีโอ๊คเข้ม 7033 ลอนกลาง (HOMEWOOD)</t>
+  </si>
+  <si>
+    <t>แผ่นระแนงไม้ WPC ขนาด 150x2900x12 ไม้เนื้ออ่อน 23193Z ลอนกลาง (HOMEWOOD)</t>
+  </si>
+  <si>
+    <t>กล่องกระดาษลูกฟูก รุ่น B1#1 ขนาด 170x400x60 mm.</t>
+  </si>
+  <si>
+    <t>กล่องกระดาษลูกฟูก รุ่น B1#1 ขนาด 170x1210x60 mm.</t>
+  </si>
+  <si>
+    <t>กล่องกระดาษลูกฟูก รุ่น C2#4 ขนาด 610x1210x15 mm.</t>
+  </si>
+  <si>
+    <t>ปลั๊กตัวเมีย 2 ขาแบน</t>
+  </si>
+  <si>
+    <t>คิ้วอลูมิเนียมฉาก ขนาด 10x10x1.2 mm. สีดำ ALL10</t>
+  </si>
+  <si>
+    <t>คิ้วอลูมิเนียมฉาก ขนาด 15x15x1.2 mm. สีดำ ALL15</t>
+  </si>
+  <si>
+    <t>อลูมิเนียมรับกระจก ALF25 Black สีดำ (27.5mm.).ยาว 3m.</t>
+  </si>
+  <si>
+    <t>มือจับอลูมิเนียม No.1AL58-3 Black สีดำ (45x20mm.).ยาว 3m.</t>
+  </si>
+  <si>
+    <t>เคมี BS.613-1 ชุดน้ำยาทดสอบ+อุปกรณ์3อย่าง 1.ขวดชมพู1ใบ 2.Syringe 10,20CC.อย่างละ1อัน 3.Biggerขนาด2ลิตร 1ใบ</t>
+  </si>
+  <si>
+    <t>ค่าจ้างปิดผิวพลาสวู้ด 15 มิล ปิดผิวสี #330 (MANDOM) 2 หน้า</t>
+  </si>
+  <si>
+    <t>ค่าจ้างปิดผิวพลาสวู้ด 15 มิล ปิดผิวสี #322 (MANDOM) 2 หน้า</t>
+  </si>
+  <si>
+    <t>NFG02-32-FOREST-K-BK-AL</t>
+  </si>
+  <si>
+    <t>NFG02-32-FOREST-K-BK-BL</t>
+  </si>
+  <si>
+    <t>NFG02-A0-FOREST-I-BK</t>
+  </si>
+  <si>
+    <t>NFG02-AA-FOREST-I-BK</t>
+  </si>
+  <si>
+    <t>NFG02-B0-FOREST-I-BK</t>
+  </si>
+  <si>
+    <t>NFG01-A0-FOREST-BK-KL</t>
+  </si>
+  <si>
+    <t>NFG03-SPC-1201000-22-15</t>
+  </si>
+  <si>
+    <t>NFG03-SPC-12101100-22-15</t>
+  </si>
+  <si>
+    <t>NFG03-SPC-12102050-22-15</t>
+  </si>
+  <si>
+    <t>NFG03-SPC-1301220-22-15</t>
+  </si>
+  <si>
+    <t>NFG03-SPC-13901100-22-15</t>
+  </si>
+  <si>
+    <t>NFG03-SPC-1801050-22-15</t>
+  </si>
+  <si>
+    <t>NFG03-SPC-1921050-22-15</t>
+  </si>
+  <si>
+    <t>NFG03-SPC-2201050-22-15</t>
+  </si>
+  <si>
+    <t>NFG03-SPC-2201050-22-15-1</t>
+  </si>
+  <si>
+    <t>NFG03-SPC-2501050-22-15</t>
+  </si>
+  <si>
+    <t>NFG03-SPC-2501050-22-15-1</t>
+  </si>
+  <si>
+    <t>NFGH4-SF-0001-267</t>
+  </si>
+  <si>
+    <t>NFGH4-SF-0001-139</t>
+  </si>
+  <si>
+    <t>NFGH4-SF-0001-211</t>
+  </si>
+  <si>
+    <t>NFGH4-SF-0001-212</t>
+  </si>
+  <si>
+    <t>NFGH4-SF-0001-270</t>
+  </si>
+  <si>
+    <t>NMA02-13329x1-BJ3</t>
+  </si>
+  <si>
+    <t>NMA02-13319x0.5-89-0389</t>
+  </si>
+  <si>
+    <t>NMA02-13329x0.5-89-0389</t>
+  </si>
+  <si>
+    <t>NMA02-13319x1.0-322-1</t>
+  </si>
+  <si>
+    <t>NMA02-13319x1.0-330-1</t>
+  </si>
+  <si>
+    <t>NMA02-13329x1.0-330-1</t>
+  </si>
+  <si>
+    <t>NMA02-131000x0.2-330</t>
+  </si>
+  <si>
+    <t>NMA02-131000x0.2-322</t>
+  </si>
+  <si>
+    <t>NMA01-120xPW15-330</t>
+  </si>
+  <si>
+    <t>NMA01-120xPW4-330</t>
+  </si>
+  <si>
+    <t>NMA01-120xPW15-322</t>
+  </si>
+  <si>
+    <t>NFG05-H4-W1-073-HC88112</t>
+  </si>
+  <si>
+    <t>NFG05-H4-W1-073-HC88108</t>
+  </si>
+  <si>
+    <t>NMA01-001-13-WPC</t>
+  </si>
+  <si>
+    <t>NMA01-001-14-WPC</t>
+  </si>
+  <si>
+    <t>NSF01-101-0001-114</t>
+  </si>
+  <si>
+    <t>NSF01-101-0001-115</t>
+  </si>
+  <si>
+    <t>NSF01-101-0001-119</t>
+  </si>
+  <si>
+    <t>NRSF8-801-P003-08</t>
+  </si>
+  <si>
+    <t>NRSF8-H04-0002-061</t>
+  </si>
+  <si>
+    <t>NRSF8-H04-0002-062</t>
+  </si>
+  <si>
+    <t>NRSF8-H05-0001-062</t>
+  </si>
+  <si>
+    <t>NRSF8-H05-0001-063</t>
+  </si>
+  <si>
+    <t>RFC9-930-0004-026</t>
+  </si>
+  <si>
+    <t>NSVF03-001-PW15-330</t>
+  </si>
+  <si>
+    <t>NSVF03-001-PW15-322</t>
+  </si>
+  <si>
+    <t>เมตร</t>
   </si>
 </sst>
 </file>
@@ -3259,7 +4324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3271,6 +4336,9 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -3551,9 +4619,4212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I144" sqref="I144"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="83" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+    <col min="9" max="9" width="26.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3"/>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3"/>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3"/>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3"/>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3"/>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3"/>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3"/>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3"/>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3"/>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3"/>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3"/>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3"/>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3"/>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="3"/>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="3"/>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3"/>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3"/>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3"/>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3"/>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3"/>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="A46" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3"/>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="A47" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3"/>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="A48" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3"/>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
+      <c r="O49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3"/>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="A50" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="b">
+        <v>1</v>
+      </c>
+      <c r="O50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3"/>
+    </row>
+    <row r="51" spans="1:27">
+      <c r="A51" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="b">
+        <v>1</v>
+      </c>
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3"/>
+    </row>
+    <row r="52" spans="1:27">
+      <c r="A52" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H52" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="b">
+        <v>1</v>
+      </c>
+      <c r="O52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3"/>
+    </row>
+    <row r="53" spans="1:27">
+      <c r="A53" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H53" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3"/>
+    </row>
+    <row r="54" spans="1:27">
+      <c r="A54" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="b">
+        <v>1</v>
+      </c>
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3"/>
+    </row>
+    <row r="55" spans="1:27">
+      <c r="A55" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H55" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="b">
+        <v>1</v>
+      </c>
+      <c r="O55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="1:27">
+      <c r="A56" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="b">
+        <v>1</v>
+      </c>
+      <c r="O56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="1:27">
+      <c r="A57" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H57" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="b">
+        <v>1</v>
+      </c>
+      <c r="O57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3"/>
+    </row>
+    <row r="58" spans="1:27">
+      <c r="A58" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H58" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="b">
+        <v>1</v>
+      </c>
+      <c r="O58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3"/>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="A59" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H59" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
+      <c r="O59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3"/>
+    </row>
+    <row r="60" spans="1:27">
+      <c r="A60" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H60" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="b">
+        <v>1</v>
+      </c>
+      <c r="O60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3"/>
+    </row>
+    <row r="61" spans="1:27">
+      <c r="A61" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
+      <c r="O61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3"/>
+    </row>
+    <row r="62" spans="1:27">
+      <c r="A62" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H62" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3"/>
+    </row>
+    <row r="63" spans="1:27">
+      <c r="A63" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H63" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
+      <c r="O63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3"/>
+    </row>
+    <row r="64" spans="1:27">
+      <c r="A64" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H64" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
+      <c r="O64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3"/>
+    </row>
+    <row r="65" spans="1:27">
+      <c r="A65" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H65" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
+      <c r="O65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3"/>
+    </row>
+    <row r="66" spans="1:27">
+      <c r="A66" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H66" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="b">
+        <v>1</v>
+      </c>
+      <c r="O66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3"/>
+    </row>
+    <row r="67" spans="1:27">
+      <c r="A67" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H67" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="1:27">
+      <c r="A68" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H68" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" t="b">
+        <v>1</v>
+      </c>
+      <c r="O68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3"/>
+    </row>
+    <row r="69" spans="1:27">
+      <c r="A69" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C69" t="s">
+        <v>173</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H69" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3"/>
+    </row>
+    <row r="70" spans="1:27">
+      <c r="A70" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H70" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" t="b">
+        <v>1</v>
+      </c>
+      <c r="O70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3"/>
+    </row>
+    <row r="71" spans="1:27">
+      <c r="A71" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" t="b">
+        <v>1</v>
+      </c>
+      <c r="N71" t="b">
+        <v>1</v>
+      </c>
+      <c r="O71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
+      <c r="A72" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B72" t="s">
+        <v>543</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" t="b">
+        <v>1</v>
+      </c>
+      <c r="O72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="3"/>
+    </row>
+    <row r="73" spans="1:27">
+      <c r="A73" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B73" t="s">
+        <v>549</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" t="b">
+        <v>1</v>
+      </c>
+      <c r="O73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3"/>
+    </row>
+    <row r="74" spans="1:27">
+      <c r="A74" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B74" t="s">
+        <v>541</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" t="b">
+        <v>1</v>
+      </c>
+      <c r="O74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3"/>
+    </row>
+    <row r="75" spans="1:27">
+      <c r="A75" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B75" t="s">
+        <v>547</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H75" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" t="b">
+        <v>1</v>
+      </c>
+      <c r="O75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3"/>
+    </row>
+    <row r="76" spans="1:27">
+      <c r="A76" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I76" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" t="b">
+        <v>1</v>
+      </c>
+      <c r="O76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3"/>
+    </row>
+    <row r="77" spans="1:27">
+      <c r="A77" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H77" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" t="b">
+        <v>1</v>
+      </c>
+      <c r="O77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3"/>
+    </row>
+    <row r="78" spans="1:27">
+      <c r="A78" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H78" t="s">
+        <v>24</v>
+      </c>
+      <c r="I78" t="s">
+        <v>21</v>
+      </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" t="b">
+        <v>1</v>
+      </c>
+      <c r="O78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="3"/>
+    </row>
+    <row r="79" spans="1:27">
+      <c r="A79" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H79" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+      <c r="M79" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" t="b">
+        <v>1</v>
+      </c>
+      <c r="O79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="3"/>
+    </row>
+    <row r="80" spans="1:27">
+      <c r="A80" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H80" t="s">
+        <v>24</v>
+      </c>
+      <c r="I80" t="s">
+        <v>21</v>
+      </c>
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" t="b">
+        <v>1</v>
+      </c>
+      <c r="O80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="3"/>
+    </row>
+    <row r="81" spans="1:27">
+      <c r="A81" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H81" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M81" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" t="b">
+        <v>1</v>
+      </c>
+      <c r="O81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3"/>
+    </row>
+    <row r="82" spans="1:27">
+      <c r="A82" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H82" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" t="s">
+        <v>21</v>
+      </c>
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" t="b">
+        <v>1</v>
+      </c>
+      <c r="O82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="1:27">
+      <c r="A83" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H83" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" t="s">
+        <v>21</v>
+      </c>
+      <c r="M83" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" t="b">
+        <v>1</v>
+      </c>
+      <c r="O83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3"/>
+    </row>
+    <row r="84" spans="1:27">
+      <c r="A84" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H84" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" t="s">
+        <v>21</v>
+      </c>
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" t="b">
+        <v>1</v>
+      </c>
+      <c r="O84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3"/>
+    </row>
+    <row r="85" spans="1:27">
+      <c r="A85" t="s">
+        <v>377</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H85" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" t="s">
+        <v>21</v>
+      </c>
+      <c r="M85" t="b">
+        <v>1</v>
+      </c>
+      <c r="N85" t="b">
+        <v>1</v>
+      </c>
+      <c r="O85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
+      <c r="A86" t="s">
+        <v>377</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H86" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86" t="s">
+        <v>21</v>
+      </c>
+      <c r="M86" t="b">
+        <v>1</v>
+      </c>
+      <c r="N86" t="b">
+        <v>1</v>
+      </c>
+      <c r="O86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
+      <c r="A87" t="s">
+        <v>377</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H87" t="s">
+        <v>24</v>
+      </c>
+      <c r="I87" t="s">
+        <v>21</v>
+      </c>
+      <c r="M87" t="b">
+        <v>1</v>
+      </c>
+      <c r="N87" t="b">
+        <v>1</v>
+      </c>
+      <c r="O87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
+      <c r="A88" t="s">
+        <v>377</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H88" t="s">
+        <v>24</v>
+      </c>
+      <c r="I88" t="s">
+        <v>21</v>
+      </c>
+      <c r="M88" t="b">
+        <v>1</v>
+      </c>
+      <c r="N88" t="b">
+        <v>1</v>
+      </c>
+      <c r="O88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
+      <c r="A89" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B89" s="11">
+        <v>201090434</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H89" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89" t="s">
+        <v>21</v>
+      </c>
+      <c r="M89" t="b">
+        <v>1</v>
+      </c>
+      <c r="N89" t="b">
+        <v>1</v>
+      </c>
+      <c r="O89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27">
+      <c r="A90" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B90" s="11">
+        <v>201090435</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H90" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" t="s">
+        <v>21</v>
+      </c>
+      <c r="M90" t="b">
+        <v>1</v>
+      </c>
+      <c r="N90" t="b">
+        <v>1</v>
+      </c>
+      <c r="O90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27">
+      <c r="A91" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B91" s="11">
+        <v>201090436</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H91" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" t="s">
+        <v>21</v>
+      </c>
+      <c r="M91" t="b">
+        <v>1</v>
+      </c>
+      <c r="N91" t="b">
+        <v>1</v>
+      </c>
+      <c r="O91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
+      <c r="A92" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B92" s="11">
+        <v>201090437</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H92" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92" t="s">
+        <v>21</v>
+      </c>
+      <c r="M92" t="b">
+        <v>1</v>
+      </c>
+      <c r="N92" t="b">
+        <v>1</v>
+      </c>
+      <c r="O92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
+      <c r="A93" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B93" s="11">
+        <v>201090438</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" t="s">
+        <v>21</v>
+      </c>
+      <c r="M93" t="b">
+        <v>1</v>
+      </c>
+      <c r="N93" t="b">
+        <v>1</v>
+      </c>
+      <c r="O93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27">
+      <c r="A94" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B94" s="11">
+        <v>201060080</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H94" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" t="s">
+        <v>21</v>
+      </c>
+      <c r="M94" t="b">
+        <v>1</v>
+      </c>
+      <c r="N94" t="b">
+        <v>1</v>
+      </c>
+      <c r="O94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27">
+      <c r="A95" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B95" s="11">
+        <v>201050518</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H95" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95" t="s">
+        <v>21</v>
+      </c>
+      <c r="M95" t="b">
+        <v>1</v>
+      </c>
+      <c r="N95" t="b">
+        <v>1</v>
+      </c>
+      <c r="O95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
+      <c r="A96" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B96" s="11">
+        <v>201050519</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H96" t="s">
+        <v>24</v>
+      </c>
+      <c r="I96" t="s">
+        <v>21</v>
+      </c>
+      <c r="M96" t="b">
+        <v>1</v>
+      </c>
+      <c r="N96" t="b">
+        <v>1</v>
+      </c>
+      <c r="O96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
+      <c r="A97" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B97" s="11">
+        <v>201050520</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H97" t="s">
+        <v>24</v>
+      </c>
+      <c r="I97" t="s">
+        <v>21</v>
+      </c>
+      <c r="M97" t="b">
+        <v>1</v>
+      </c>
+      <c r="N97" t="b">
+        <v>1</v>
+      </c>
+      <c r="O97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
+      <c r="A98" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B98" s="11">
+        <v>201050521</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H98" t="s">
+        <v>24</v>
+      </c>
+      <c r="I98" t="s">
+        <v>21</v>
+      </c>
+      <c r="M98" t="b">
+        <v>1</v>
+      </c>
+      <c r="N98" t="b">
+        <v>1</v>
+      </c>
+      <c r="O98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
+      <c r="A99" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B99" s="11">
+        <v>201050522</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H99" t="s">
+        <v>24</v>
+      </c>
+      <c r="I99" t="s">
+        <v>21</v>
+      </c>
+      <c r="M99" t="b">
+        <v>1</v>
+      </c>
+      <c r="N99" t="b">
+        <v>1</v>
+      </c>
+      <c r="O99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27">
+      <c r="A100" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B100" s="11">
+        <v>201050523</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H100" t="s">
+        <v>24</v>
+      </c>
+      <c r="I100" t="s">
+        <v>21</v>
+      </c>
+      <c r="M100" t="b">
+        <v>1</v>
+      </c>
+      <c r="N100" t="b">
+        <v>1</v>
+      </c>
+      <c r="O100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27">
+      <c r="A101" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B101" s="11">
+        <v>201050524</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H101" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" t="s">
+        <v>21</v>
+      </c>
+      <c r="M101" t="b">
+        <v>1</v>
+      </c>
+      <c r="N101" t="b">
+        <v>1</v>
+      </c>
+      <c r="O101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27">
+      <c r="A102" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B102" s="11">
+        <v>201050525</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I102" t="s">
+        <v>21</v>
+      </c>
+      <c r="M102" t="b">
+        <v>1</v>
+      </c>
+      <c r="N102" t="b">
+        <v>1</v>
+      </c>
+      <c r="O102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27">
+      <c r="A103" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B103" s="11">
+        <v>201050526</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103" t="s">
+        <v>21</v>
+      </c>
+      <c r="M103" t="b">
+        <v>1</v>
+      </c>
+      <c r="N103" t="b">
+        <v>1</v>
+      </c>
+      <c r="O103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27">
+      <c r="A104" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B104" s="11">
+        <v>201050527</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H104" t="s">
+        <v>24</v>
+      </c>
+      <c r="I104" t="s">
+        <v>21</v>
+      </c>
+      <c r="M104" t="b">
+        <v>1</v>
+      </c>
+      <c r="N104" t="b">
+        <v>1</v>
+      </c>
+      <c r="O104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27">
+      <c r="A105" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B105" s="11">
+        <v>201050528</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H105" t="s">
+        <v>24</v>
+      </c>
+      <c r="I105" t="s">
+        <v>21</v>
+      </c>
+      <c r="M105" t="b">
+        <v>1</v>
+      </c>
+      <c r="N105" t="b">
+        <v>1</v>
+      </c>
+      <c r="O105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27">
+      <c r="A106" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B106" s="11">
+        <v>301010096</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H106" t="s">
+        <v>24</v>
+      </c>
+      <c r="I106" t="s">
+        <v>21</v>
+      </c>
+      <c r="M106" t="b">
+        <v>0</v>
+      </c>
+      <c r="N106" t="b">
+        <v>1</v>
+      </c>
+      <c r="O106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27">
+      <c r="A107" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B107" s="11">
+        <v>301010097</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H107" t="s">
+        <v>24</v>
+      </c>
+      <c r="I107" t="s">
+        <v>21</v>
+      </c>
+      <c r="M107" t="b">
+        <v>0</v>
+      </c>
+      <c r="N107" t="b">
+        <v>1</v>
+      </c>
+      <c r="O107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27">
+      <c r="A108" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B108" s="11">
+        <v>301010098</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H108" t="s">
+        <v>24</v>
+      </c>
+      <c r="I108" t="s">
+        <v>21</v>
+      </c>
+      <c r="M108" t="b">
+        <v>0</v>
+      </c>
+      <c r="N108" t="b">
+        <v>1</v>
+      </c>
+      <c r="O108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27">
+      <c r="A109" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B109" s="11">
+        <v>301010099</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H109" t="s">
+        <v>24</v>
+      </c>
+      <c r="I109" t="s">
+        <v>21</v>
+      </c>
+      <c r="M109" t="b">
+        <v>0</v>
+      </c>
+      <c r="N109" t="b">
+        <v>1</v>
+      </c>
+      <c r="O109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27">
+      <c r="A110" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B110" s="11">
+        <v>301010100</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H110" t="s">
+        <v>24</v>
+      </c>
+      <c r="I110" t="s">
+        <v>21</v>
+      </c>
+      <c r="M110" t="b">
+        <v>0</v>
+      </c>
+      <c r="N110" t="b">
+        <v>1</v>
+      </c>
+      <c r="O110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27">
+      <c r="A111" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B111" s="11">
+        <v>406010130</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I111" t="s">
+        <v>21</v>
+      </c>
+      <c r="M111" t="b">
+        <v>0</v>
+      </c>
+      <c r="N111" t="b">
+        <v>1</v>
+      </c>
+      <c r="O111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27">
+      <c r="A112" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B112" s="11">
+        <v>406010131</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I112" t="s">
+        <v>21</v>
+      </c>
+      <c r="M112" t="b">
+        <v>0</v>
+      </c>
+      <c r="N112" t="b">
+        <v>1</v>
+      </c>
+      <c r="O112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA112" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
+      <c r="A113" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B113" s="11">
+        <v>406010132</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I113" t="s">
+        <v>21</v>
+      </c>
+      <c r="M113" t="b">
+        <v>0</v>
+      </c>
+      <c r="N113" t="b">
+        <v>1</v>
+      </c>
+      <c r="O113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA113" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
+      <c r="A114" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B114" s="11">
+        <v>406010133</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I114" t="s">
+        <v>21</v>
+      </c>
+      <c r="M114" t="b">
+        <v>0</v>
+      </c>
+      <c r="N114" t="b">
+        <v>1</v>
+      </c>
+      <c r="O114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA114" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
+      <c r="A115" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B115" s="11">
+        <v>406010134</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I115" t="s">
+        <v>21</v>
+      </c>
+      <c r="M115" t="b">
+        <v>0</v>
+      </c>
+      <c r="N115" t="b">
+        <v>1</v>
+      </c>
+      <c r="O115" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27">
+      <c r="A116" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B116" s="11">
+        <v>406010135</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I116" t="s">
+        <v>21</v>
+      </c>
+      <c r="M116" t="b">
+        <v>0</v>
+      </c>
+      <c r="N116" t="b">
+        <v>1</v>
+      </c>
+      <c r="O116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA116" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27">
+      <c r="A117" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B117" s="11">
+        <v>404030019</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I117" t="s">
+        <v>21</v>
+      </c>
+      <c r="M117" t="b">
+        <v>0</v>
+      </c>
+      <c r="N117" t="b">
+        <v>1</v>
+      </c>
+      <c r="O117" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA117" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27">
+      <c r="A118" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B118" s="11">
+        <v>404030020</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I118" t="s">
+        <v>21</v>
+      </c>
+      <c r="M118" t="b">
+        <v>0</v>
+      </c>
+      <c r="N118" t="b">
+        <v>1</v>
+      </c>
+      <c r="O118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA118" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27">
+      <c r="A119" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B119" s="11">
+        <v>304010050</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H119" t="s">
+        <v>24</v>
+      </c>
+      <c r="I119" t="s">
+        <v>21</v>
+      </c>
+      <c r="M119" t="b">
+        <v>0</v>
+      </c>
+      <c r="N119" t="b">
+        <v>1</v>
+      </c>
+      <c r="O119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27">
+      <c r="A120" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B120" s="11">
+        <v>304010051</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H120" t="s">
+        <v>24</v>
+      </c>
+      <c r="I120" t="s">
+        <v>21</v>
+      </c>
+      <c r="M120" t="b">
+        <v>0</v>
+      </c>
+      <c r="N120" t="b">
+        <v>1</v>
+      </c>
+      <c r="O120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA120" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27">
+      <c r="A121" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B121" s="11">
+        <v>304010052</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H121" t="s">
+        <v>24</v>
+      </c>
+      <c r="I121" t="s">
+        <v>21</v>
+      </c>
+      <c r="M121" t="b">
+        <v>0</v>
+      </c>
+      <c r="N121" t="b">
+        <v>1</v>
+      </c>
+      <c r="O121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA121" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27">
+      <c r="A122" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B122" s="11">
+        <v>403010046</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H122" t="s">
+        <v>24</v>
+      </c>
+      <c r="I122" t="s">
+        <v>21</v>
+      </c>
+      <c r="M122" t="b">
+        <v>0</v>
+      </c>
+      <c r="N122" t="b">
+        <v>1</v>
+      </c>
+      <c r="O122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA122" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27">
+      <c r="A123" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B123" s="11">
+        <v>403010047</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H123" t="s">
+        <v>24</v>
+      </c>
+      <c r="I123" t="s">
+        <v>21</v>
+      </c>
+      <c r="M123" t="b">
+        <v>0</v>
+      </c>
+      <c r="N123" t="b">
+        <v>1</v>
+      </c>
+      <c r="O123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA123" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27">
+      <c r="A124" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B124" s="11">
+        <v>403060002</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H124" t="s">
+        <v>24</v>
+      </c>
+      <c r="I124" t="s">
+        <v>21</v>
+      </c>
+      <c r="M124" t="b">
+        <v>0</v>
+      </c>
+      <c r="N124" t="b">
+        <v>1</v>
+      </c>
+      <c r="O124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA124" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27">
+      <c r="A125" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B125" s="11">
+        <v>403060003</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H125" t="s">
+        <v>24</v>
+      </c>
+      <c r="I125" t="s">
+        <v>21</v>
+      </c>
+      <c r="M125" t="b">
+        <v>0</v>
+      </c>
+      <c r="N125" t="b">
+        <v>1</v>
+      </c>
+      <c r="O125" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA125" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27">
+      <c r="A126" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B126" s="11">
+        <v>413010297</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H126" t="s">
+        <v>24</v>
+      </c>
+      <c r="I126" t="s">
+        <v>21</v>
+      </c>
+      <c r="M126" t="b">
+        <v>0</v>
+      </c>
+      <c r="N126" t="b">
+        <v>1</v>
+      </c>
+      <c r="O126" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA126" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27">
+      <c r="A127" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B127" s="11">
+        <v>413010298</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H127" t="s">
+        <v>24</v>
+      </c>
+      <c r="I127" t="s">
+        <v>21</v>
+      </c>
+      <c r="M127" t="b">
+        <v>0</v>
+      </c>
+      <c r="N127" t="b">
+        <v>1</v>
+      </c>
+      <c r="O127" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27">
+      <c r="A128" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B128" s="11">
+        <v>413010299</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H128" t="s">
+        <v>24</v>
+      </c>
+      <c r="I128" t="s">
+        <v>21</v>
+      </c>
+      <c r="M128" t="b">
+        <v>0</v>
+      </c>
+      <c r="N128" t="b">
+        <v>1</v>
+      </c>
+      <c r="O128" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA128" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="A129" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B129" s="11">
+        <v>520020013</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H129" t="s">
+        <v>24</v>
+      </c>
+      <c r="I129" t="s">
+        <v>21</v>
+      </c>
+      <c r="M129" t="b">
+        <v>0</v>
+      </c>
+      <c r="N129" t="b">
+        <v>1</v>
+      </c>
+      <c r="O129" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA129" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
+      <c r="A130" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B130" s="11">
+        <v>418010012</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H130" t="s">
+        <v>24</v>
+      </c>
+      <c r="I130" t="s">
+        <v>21</v>
+      </c>
+      <c r="M130" t="b">
+        <v>0</v>
+      </c>
+      <c r="N130" t="b">
+        <v>1</v>
+      </c>
+      <c r="O130" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA130" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
+      <c r="A131" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B131" s="11">
+        <v>418010013</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H131" t="s">
+        <v>24</v>
+      </c>
+      <c r="I131" t="s">
+        <v>21</v>
+      </c>
+      <c r="M131" t="b">
+        <v>0</v>
+      </c>
+      <c r="N131" t="b">
+        <v>1</v>
+      </c>
+      <c r="O131" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA131" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
+      <c r="A132" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B132" s="11">
+        <v>418010014</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H132" t="s">
+        <v>24</v>
+      </c>
+      <c r="I132" t="s">
+        <v>21</v>
+      </c>
+      <c r="M132" t="b">
+        <v>0</v>
+      </c>
+      <c r="N132" t="b">
+        <v>1</v>
+      </c>
+      <c r="O132" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA132" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27">
+      <c r="A133" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B133" s="11">
+        <v>418010015</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H133" t="s">
+        <v>24</v>
+      </c>
+      <c r="I133" t="s">
+        <v>21</v>
+      </c>
+      <c r="M133" t="b">
+        <v>0</v>
+      </c>
+      <c r="N133" t="b">
+        <v>1</v>
+      </c>
+      <c r="O133" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA133" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27">
+      <c r="A134" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B134" s="11">
+        <v>411010006</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H134" t="s">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>21</v>
+      </c>
+      <c r="M134" t="b">
+        <v>0</v>
+      </c>
+      <c r="N134" t="b">
+        <v>1</v>
+      </c>
+      <c r="O134" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA134" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27">
+      <c r="A135" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B135" s="11">
+        <v>60104020022</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H135" t="s">
+        <v>24</v>
+      </c>
+      <c r="I135" t="s">
+        <v>21</v>
+      </c>
+      <c r="M135" t="b">
+        <v>0</v>
+      </c>
+      <c r="N135" t="b">
+        <v>1</v>
+      </c>
+      <c r="O135" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA135" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27">
+      <c r="A136" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B136" s="11">
+        <v>60104020023</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H136" t="s">
+        <v>24</v>
+      </c>
+      <c r="I136" t="s">
+        <v>21</v>
+      </c>
+      <c r="M136" t="b">
+        <v>0</v>
+      </c>
+      <c r="N136" t="b">
+        <v>1</v>
+      </c>
+      <c r="O136" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA136" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D165" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D165" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
@@ -16774,108 +22045,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Import_Product/import_product_expens.xlsx
+++ b/Import_Product/import_product_expens.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="1408">
   <si>
     <t>SET</t>
   </si>
@@ -4621,8 +4621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4780,7 +4780,9 @@
       <c r="O3" t="b">
         <v>0</v>
       </c>
-      <c r="AA3" s="3"/>
+      <c r="AA3" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
@@ -4789,9 +4791,6 @@
       <c r="B4" t="s">
         <v>1232</v>
       </c>
-      <c r="C4" t="s">
-        <v>165</v>
-      </c>
       <c r="F4" t="s">
         <v>1066</v>
       </c>
@@ -4810,7 +4809,9 @@
       <c r="O4" t="b">
         <v>0</v>
       </c>
-      <c r="AA4" s="3"/>
+      <c r="AA4" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" t="s">
@@ -4840,7 +4841,9 @@
       <c r="O5" t="b">
         <v>0</v>
       </c>
-      <c r="AA5" s="3"/>
+      <c r="AA5" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" t="s">
@@ -4870,7 +4873,9 @@
       <c r="O6" t="b">
         <v>0</v>
       </c>
-      <c r="AA6" s="3"/>
+      <c r="AA6" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" t="s">
@@ -4900,7 +4905,9 @@
       <c r="O7" t="b">
         <v>0</v>
       </c>
-      <c r="AA7" s="3"/>
+      <c r="AA7" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" t="s">
@@ -4930,7 +4937,9 @@
       <c r="O8" t="b">
         <v>0</v>
       </c>
-      <c r="AA8" s="3"/>
+      <c r="AA8" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" t="s">
@@ -4960,7 +4969,9 @@
       <c r="O9" t="b">
         <v>0</v>
       </c>
-      <c r="AA9" s="3"/>
+      <c r="AA9" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" t="s">
@@ -4990,7 +5001,9 @@
       <c r="O10" t="b">
         <v>0</v>
       </c>
-      <c r="AA10" s="3"/>
+      <c r="AA10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" t="s">
@@ -5020,7 +5033,9 @@
       <c r="O11" t="b">
         <v>0</v>
       </c>
-      <c r="AA11" s="3"/>
+      <c r="AA11" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" t="s">
@@ -5050,7 +5065,9 @@
       <c r="O12" t="b">
         <v>0</v>
       </c>
-      <c r="AA12" s="3"/>
+      <c r="AA12" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" t="s">
@@ -5080,7 +5097,9 @@
       <c r="O13" t="b">
         <v>0</v>
       </c>
-      <c r="AA13" s="3"/>
+      <c r="AA13" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" t="s">
@@ -5110,7 +5129,9 @@
       <c r="O14" t="b">
         <v>0</v>
       </c>
-      <c r="AA14" s="3"/>
+      <c r="AA14" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" t="s">
@@ -5140,7 +5161,9 @@
       <c r="O15" t="b">
         <v>0</v>
       </c>
-      <c r="AA15" s="3"/>
+      <c r="AA15" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" t="s">
@@ -5170,7 +5193,9 @@
       <c r="O16" t="b">
         <v>0</v>
       </c>
-      <c r="AA16" s="3"/>
+      <c r="AA16" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="s">
@@ -5200,7 +5225,9 @@
       <c r="O17" t="b">
         <v>0</v>
       </c>
-      <c r="AA17" s="3"/>
+      <c r="AA17" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
@@ -5230,7 +5257,9 @@
       <c r="O18" t="b">
         <v>0</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="s">
@@ -5260,7 +5289,9 @@
       <c r="O19" t="b">
         <v>0</v>
       </c>
-      <c r="AA19" s="3"/>
+      <c r="AA19" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="s">
@@ -5290,7 +5321,9 @@
       <c r="O20" t="b">
         <v>0</v>
       </c>
-      <c r="AA20" s="3"/>
+      <c r="AA20" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="s">
@@ -5320,7 +5353,9 @@
       <c r="O21" t="b">
         <v>0</v>
       </c>
-      <c r="AA21" s="3"/>
+      <c r="AA21" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" t="s">
@@ -5350,7 +5385,9 @@
       <c r="O22" t="b">
         <v>0</v>
       </c>
-      <c r="AA22" s="3"/>
+      <c r="AA22" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" t="s">
@@ -5380,7 +5417,9 @@
       <c r="O23" t="b">
         <v>0</v>
       </c>
-      <c r="AA23" s="3"/>
+      <c r="AA23" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" t="s">
@@ -5410,7 +5449,9 @@
       <c r="O24" t="b">
         <v>0</v>
       </c>
-      <c r="AA24" s="3"/>
+      <c r="AA24" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="s">
@@ -5440,7 +5481,9 @@
       <c r="O25" t="b">
         <v>0</v>
       </c>
-      <c r="AA25" s="3"/>
+      <c r="AA25" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:27">
       <c r="A26" t="s">
@@ -5470,7 +5513,9 @@
       <c r="O26" t="b">
         <v>0</v>
       </c>
-      <c r="AA26" s="3"/>
+      <c r="AA26" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:27">
       <c r="A27" t="s">
@@ -5500,7 +5545,9 @@
       <c r="O27" t="b">
         <v>0</v>
       </c>
-      <c r="AA27" s="3"/>
+      <c r="AA27" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="s">
@@ -5530,7 +5577,9 @@
       <c r="O28" t="b">
         <v>0</v>
       </c>
-      <c r="AA28" s="3"/>
+      <c r="AA28" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="s">
@@ -5560,7 +5609,9 @@
       <c r="O29" t="b">
         <v>0</v>
       </c>
-      <c r="AA29" s="3"/>
+      <c r="AA29" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="s">
@@ -5590,7 +5641,9 @@
       <c r="O30" t="b">
         <v>0</v>
       </c>
-      <c r="AA30" s="3"/>
+      <c r="AA30" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" t="s">
@@ -5620,7 +5673,9 @@
       <c r="O31" t="b">
         <v>0</v>
       </c>
-      <c r="AA31" s="3"/>
+      <c r="AA31" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="s">
@@ -5650,7 +5705,9 @@
       <c r="O32" t="b">
         <v>0</v>
       </c>
-      <c r="AA32" s="3"/>
+      <c r="AA32" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" t="s">
@@ -5680,7 +5737,9 @@
       <c r="O33" t="b">
         <v>0</v>
       </c>
-      <c r="AA33" s="3"/>
+      <c r="AA33" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" t="s">
@@ -5742,7 +5801,9 @@
       <c r="O35" t="b">
         <v>0</v>
       </c>
-      <c r="AA35" s="3"/>
+      <c r="AA35" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:27">
       <c r="A36" t="s">
@@ -5772,7 +5833,9 @@
       <c r="O36" t="b">
         <v>0</v>
       </c>
-      <c r="AA36" s="3"/>
+      <c r="AA36" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:27">
       <c r="A37" t="s">
@@ -5802,7 +5865,9 @@
       <c r="O37" t="b">
         <v>0</v>
       </c>
-      <c r="AA37" s="3"/>
+      <c r="AA37" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="38" spans="1:27">
       <c r="A38" t="s">
@@ -5832,7 +5897,9 @@
       <c r="O38" t="b">
         <v>0</v>
       </c>
-      <c r="AA38" s="3"/>
+      <c r="AA38" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="39" spans="1:27">
       <c r="A39" t="s">
@@ -5862,7 +5929,9 @@
       <c r="O39" t="b">
         <v>0</v>
       </c>
-      <c r="AA39" s="3"/>
+      <c r="AA39" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" t="s">
@@ -5892,7 +5961,9 @@
       <c r="O40" t="b">
         <v>0</v>
       </c>
-      <c r="AA40" s="3"/>
+      <c r="AA40" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" t="s">
@@ -5922,7 +5993,9 @@
       <c r="O41" t="b">
         <v>0</v>
       </c>
-      <c r="AA41" s="3"/>
+      <c r="AA41" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="42" spans="1:27">
       <c r="A42" t="s">
@@ -5952,7 +6025,9 @@
       <c r="O42" t="b">
         <v>0</v>
       </c>
-      <c r="AA42" s="3"/>
+      <c r="AA42" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="43" spans="1:27">
       <c r="A43" t="s">
@@ -5982,7 +6057,9 @@
       <c r="O43" t="b">
         <v>0</v>
       </c>
-      <c r="AA43" s="3"/>
+      <c r="AA43" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="44" spans="1:27">
       <c r="A44" t="s">
@@ -6012,7 +6089,9 @@
       <c r="O44" t="b">
         <v>0</v>
       </c>
-      <c r="AA44" s="3"/>
+      <c r="AA44" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:27">
       <c r="A45" t="s">
@@ -6042,7 +6121,9 @@
       <c r="O45" t="b">
         <v>0</v>
       </c>
-      <c r="AA45" s="3"/>
+      <c r="AA45" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="46" spans="1:27">
       <c r="A46" t="s">
@@ -6072,7 +6153,9 @@
       <c r="O46" t="b">
         <v>0</v>
       </c>
-      <c r="AA46" s="3"/>
+      <c r="AA46" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="47" spans="1:27">
       <c r="A47" t="s">
@@ -6102,7 +6185,9 @@
       <c r="O47" t="b">
         <v>0</v>
       </c>
-      <c r="AA47" s="3"/>
+      <c r="AA47" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" t="s">
@@ -6132,7 +6217,9 @@
       <c r="O48" t="b">
         <v>0</v>
       </c>
-      <c r="AA48" s="3"/>
+      <c r="AA48" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="49" spans="1:27">
       <c r="A49" t="s">
@@ -6162,7 +6249,9 @@
       <c r="O49" t="b">
         <v>0</v>
       </c>
-      <c r="AA49" s="3"/>
+      <c r="AA49" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="50" spans="1:27">
       <c r="A50" t="s">
@@ -6192,7 +6281,9 @@
       <c r="O50" t="b">
         <v>0</v>
       </c>
-      <c r="AA50" s="3"/>
+      <c r="AA50" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="51" spans="1:27">
       <c r="A51" t="s">
@@ -6222,7 +6313,9 @@
       <c r="O51" t="b">
         <v>0</v>
       </c>
-      <c r="AA51" s="3"/>
+      <c r="AA51" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="52" spans="1:27">
       <c r="A52" t="s">
@@ -6252,7 +6345,9 @@
       <c r="O52" t="b">
         <v>0</v>
       </c>
-      <c r="AA52" s="3"/>
+      <c r="AA52" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="53" spans="1:27">
       <c r="A53" t="s">
@@ -6282,7 +6377,9 @@
       <c r="O53" t="b">
         <v>0</v>
       </c>
-      <c r="AA53" s="3"/>
+      <c r="AA53" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="54" spans="1:27">
       <c r="A54" t="s">
@@ -6312,7 +6409,9 @@
       <c r="O54" t="b">
         <v>0</v>
       </c>
-      <c r="AA54" s="3"/>
+      <c r="AA54" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="55" spans="1:27">
       <c r="A55" t="s">
@@ -6342,7 +6441,9 @@
       <c r="O55" t="b">
         <v>0</v>
       </c>
-      <c r="AA55" s="3"/>
+      <c r="AA55" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="56" spans="1:27">
       <c r="A56" t="s">
@@ -6372,7 +6473,9 @@
       <c r="O56" t="b">
         <v>0</v>
       </c>
-      <c r="AA56" s="3"/>
+      <c r="AA56" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="57" spans="1:27">
       <c r="A57" t="s">
@@ -6402,7 +6505,9 @@
       <c r="O57" t="b">
         <v>0</v>
       </c>
-      <c r="AA57" s="3"/>
+      <c r="AA57" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="58" spans="1:27">
       <c r="A58" t="s">
@@ -6432,7 +6537,9 @@
       <c r="O58" t="b">
         <v>0</v>
       </c>
-      <c r="AA58" s="3"/>
+      <c r="AA58" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="59" spans="1:27">
       <c r="A59" t="s">
@@ -6462,7 +6569,9 @@
       <c r="O59" t="b">
         <v>0</v>
       </c>
-      <c r="AA59" s="3"/>
+      <c r="AA59" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="60" spans="1:27">
       <c r="A60" t="s">
@@ -6492,7 +6601,9 @@
       <c r="O60" t="b">
         <v>0</v>
       </c>
-      <c r="AA60" s="3"/>
+      <c r="AA60" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" t="s">
@@ -6522,7 +6633,9 @@
       <c r="O61" t="b">
         <v>0</v>
       </c>
-      <c r="AA61" s="3"/>
+      <c r="AA61" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="62" spans="1:27">
       <c r="A62" t="s">
@@ -6552,7 +6665,9 @@
       <c r="O62" t="b">
         <v>0</v>
       </c>
-      <c r="AA62" s="3"/>
+      <c r="AA62" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:27">
       <c r="A63" t="s">
@@ -6582,7 +6697,9 @@
       <c r="O63" t="b">
         <v>0</v>
       </c>
-      <c r="AA63" s="3"/>
+      <c r="AA63" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="64" spans="1:27">
       <c r="A64" t="s">
@@ -6612,7 +6729,9 @@
       <c r="O64" t="b">
         <v>0</v>
       </c>
-      <c r="AA64" s="3"/>
+      <c r="AA64" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="65" spans="1:27">
       <c r="A65" t="s">
@@ -6642,7 +6761,9 @@
       <c r="O65" t="b">
         <v>0</v>
       </c>
-      <c r="AA65" s="3"/>
+      <c r="AA65" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="66" spans="1:27">
       <c r="A66" t="s">
@@ -6672,7 +6793,9 @@
       <c r="O66" t="b">
         <v>0</v>
       </c>
-      <c r="AA66" s="3"/>
+      <c r="AA66" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="67" spans="1:27">
       <c r="A67" t="s">
@@ -6702,7 +6825,9 @@
       <c r="O67" t="b">
         <v>0</v>
       </c>
-      <c r="AA67" s="3"/>
+      <c r="AA67" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="68" spans="1:27">
       <c r="A68" t="s">
@@ -6732,7 +6857,9 @@
       <c r="O68" t="b">
         <v>0</v>
       </c>
-      <c r="AA68" s="3"/>
+      <c r="AA68" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="69" spans="1:27">
       <c r="A69" t="s">
@@ -6741,9 +6868,6 @@
       <c r="B69" t="s">
         <v>1297</v>
       </c>
-      <c r="C69" t="s">
-        <v>173</v>
-      </c>
       <c r="F69" t="s">
         <v>1131</v>
       </c>
@@ -6762,7 +6886,9 @@
       <c r="O69" t="b">
         <v>0</v>
       </c>
-      <c r="AA69" s="3"/>
+      <c r="AA69" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="70" spans="1:27">
       <c r="A70" t="s">
@@ -6792,7 +6918,9 @@
       <c r="O70" t="b">
         <v>0</v>
       </c>
-      <c r="AA70" s="3"/>
+      <c r="AA70" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="71" spans="1:27">
       <c r="A71" t="s">
@@ -6848,7 +6976,9 @@
       <c r="O72" t="b">
         <v>0</v>
       </c>
-      <c r="AA72" s="3"/>
+      <c r="AA72" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="73" spans="1:27">
       <c r="A73" t="s">
@@ -6875,7 +7005,9 @@
       <c r="O73" t="b">
         <v>0</v>
       </c>
-      <c r="AA73" s="3"/>
+      <c r="AA73" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="74" spans="1:27">
       <c r="A74" t="s">
@@ -6902,7 +7034,9 @@
       <c r="O74" t="b">
         <v>0</v>
       </c>
-      <c r="AA74" s="3"/>
+      <c r="AA74" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="75" spans="1:27">
       <c r="A75" t="s">
@@ -6929,7 +7063,9 @@
       <c r="O75" t="b">
         <v>0</v>
       </c>
-      <c r="AA75" s="3"/>
+      <c r="AA75" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="76" spans="1:27">
       <c r="A76" t="s">
@@ -6956,7 +7092,9 @@
       <c r="O76" t="b">
         <v>0</v>
       </c>
-      <c r="AA76" s="3"/>
+      <c r="AA76" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="77" spans="1:27">
       <c r="A77" t="s">
@@ -6983,7 +7121,9 @@
       <c r="O77" t="b">
         <v>0</v>
       </c>
-      <c r="AA77" s="3"/>
+      <c r="AA77" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="78" spans="1:27">
       <c r="A78" t="s">
@@ -7010,7 +7150,9 @@
       <c r="O78" t="b">
         <v>0</v>
       </c>
-      <c r="AA78" s="3"/>
+      <c r="AA78" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="79" spans="1:27">
       <c r="A79" t="s">
@@ -7037,7 +7179,9 @@
       <c r="O79" t="b">
         <v>0</v>
       </c>
-      <c r="AA79" s="3"/>
+      <c r="AA79" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="80" spans="1:27">
       <c r="A80" t="s">
@@ -7064,7 +7208,9 @@
       <c r="O80" t="b">
         <v>0</v>
       </c>
-      <c r="AA80" s="3"/>
+      <c r="AA80" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="81" spans="1:27">
       <c r="A81" t="s">
@@ -7091,7 +7237,9 @@
       <c r="O81" t="b">
         <v>0</v>
       </c>
-      <c r="AA81" s="3"/>
+      <c r="AA81" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="82" spans="1:27">
       <c r="A82" t="s">
@@ -7118,7 +7266,9 @@
       <c r="O82" t="b">
         <v>0</v>
       </c>
-      <c r="AA82" s="3"/>
+      <c r="AA82" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="83" spans="1:27">
       <c r="A83" t="s">
@@ -7145,7 +7295,9 @@
       <c r="O83" t="b">
         <v>0</v>
       </c>
-      <c r="AA83" s="3"/>
+      <c r="AA83" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="84" spans="1:27">
       <c r="A84" t="s">
@@ -7172,7 +7324,9 @@
       <c r="O84" t="b">
         <v>0</v>
       </c>
-      <c r="AA84" s="3"/>
+      <c r="AA84" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="85" spans="1:27">
       <c r="A85" t="s">
@@ -7199,6 +7353,9 @@
       <c r="O85" t="b">
         <v>0</v>
       </c>
+      <c r="AA85" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="86" spans="1:27">
       <c r="A86" t="s">
@@ -7225,6 +7382,9 @@
       <c r="O86" t="b">
         <v>0</v>
       </c>
+      <c r="AA86" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="87" spans="1:27">
       <c r="A87" t="s">
@@ -7251,6 +7411,9 @@
       <c r="O87" t="b">
         <v>0</v>
       </c>
+      <c r="AA87" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="88" spans="1:27">
       <c r="A88" t="s">
@@ -7276,6 +7439,9 @@
       </c>
       <c r="O88" t="b">
         <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="89" spans="1:27">

--- a/Import_Product/import_product_expens.xlsx
+++ b/Import_Product/import_product_expens.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="1409">
   <si>
     <t>SET</t>
   </si>
@@ -3039,60 +3039,9 @@
     <t>ASS040</t>
   </si>
   <si>
-    <t>ASS041</t>
-  </si>
-  <si>
-    <t>ASS042</t>
-  </si>
-  <si>
-    <t>ASS043</t>
-  </si>
-  <si>
     <t>ASS044</t>
   </si>
   <si>
-    <t>ASS045</t>
-  </si>
-  <si>
-    <t>ASS048</t>
-  </si>
-  <si>
-    <t>ASS039</t>
-  </si>
-  <si>
-    <t>ASS056</t>
-  </si>
-  <si>
-    <t>ASS033</t>
-  </si>
-  <si>
-    <t>ASS054</t>
-  </si>
-  <si>
-    <t>ASS055</t>
-  </si>
-  <si>
-    <t>ASS057</t>
-  </si>
-  <si>
-    <t>ASS058</t>
-  </si>
-  <si>
-    <t>ASS027</t>
-  </si>
-  <si>
-    <t>ASS038</t>
-  </si>
-  <si>
-    <t>ASS059</t>
-  </si>
-  <si>
-    <t>ASS060</t>
-  </si>
-  <si>
-    <t>ASS061</t>
-  </si>
-  <si>
     <t>ITE0001</t>
   </si>
   <si>
@@ -4252,6 +4201,60 @@
   </si>
   <si>
     <t>เมตร</t>
+  </si>
+  <si>
+    <t>ITE0008</t>
+  </si>
+  <si>
+    <t>ITE0009</t>
+  </si>
+  <si>
+    <t>ITE0010</t>
+  </si>
+  <si>
+    <t>ITE0011</t>
+  </si>
+  <si>
+    <t>ITE0012</t>
+  </si>
+  <si>
+    <t>ITE0013</t>
+  </si>
+  <si>
+    <t>ITE0014</t>
+  </si>
+  <si>
+    <t>ITE0015</t>
+  </si>
+  <si>
+    <t>ITE0016</t>
+  </si>
+  <si>
+    <t>ITE0017</t>
+  </si>
+  <si>
+    <t>ITE0018</t>
+  </si>
+  <si>
+    <t>ITE0019</t>
+  </si>
+  <si>
+    <t>ITE0020</t>
+  </si>
+  <si>
+    <t>ITE0021</t>
+  </si>
+  <si>
+    <t>ITE0022</t>
+  </si>
+  <si>
+    <t>ITE0023</t>
+  </si>
+  <si>
+    <t>ITE0024</t>
+  </si>
+  <si>
+    <t>ITE0025</t>
   </si>
 </sst>
 </file>
@@ -4621,7 +4624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A132" workbookViewId="0">
       <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
@@ -4725,13 +4728,13 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="B2" t="s">
-        <v>1230</v>
+        <v>1213</v>
       </c>
       <c r="F2" t="s">
-        <v>1064</v>
+        <v>1047</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
@@ -4754,16 +4757,16 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>1054</v>
+        <v>1037</v>
       </c>
       <c r="B3" t="s">
-        <v>1231</v>
+        <v>1214</v>
       </c>
       <c r="C3" t="s">
         <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>1065</v>
+        <v>1048</v>
       </c>
       <c r="H3" t="s">
         <v>38</v>
@@ -4786,13 +4789,13 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>1055</v>
+        <v>1038</v>
       </c>
       <c r="B4" t="s">
-        <v>1232</v>
+        <v>1215</v>
       </c>
       <c r="F4" t="s">
-        <v>1066</v>
+        <v>1049</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -4815,16 +4818,16 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B5" t="s">
-        <v>1233</v>
+        <v>1216</v>
       </c>
       <c r="C5" t="s">
-        <v>1151</v>
+        <v>1134</v>
       </c>
       <c r="F5" t="s">
-        <v>1067</v>
+        <v>1050</v>
       </c>
       <c r="H5" t="s">
         <v>24</v>
@@ -4847,16 +4850,16 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B6" t="s">
-        <v>1234</v>
+        <v>1217</v>
       </c>
       <c r="C6" t="s">
-        <v>1152</v>
+        <v>1135</v>
       </c>
       <c r="F6" t="s">
-        <v>1068</v>
+        <v>1051</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
@@ -4879,16 +4882,16 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B7" t="s">
-        <v>1235</v>
+        <v>1218</v>
       </c>
       <c r="C7" t="s">
-        <v>1153</v>
+        <v>1136</v>
       </c>
       <c r="F7" t="s">
-        <v>1069</v>
+        <v>1052</v>
       </c>
       <c r="H7" t="s">
         <v>24</v>
@@ -4911,16 +4914,16 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B8" t="s">
-        <v>1236</v>
+        <v>1219</v>
       </c>
       <c r="C8" t="s">
-        <v>1154</v>
+        <v>1137</v>
       </c>
       <c r="F8" t="s">
-        <v>1070</v>
+        <v>1053</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -4943,16 +4946,16 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B9" t="s">
-        <v>1237</v>
+        <v>1220</v>
       </c>
       <c r="C9" t="s">
-        <v>1155</v>
+        <v>1138</v>
       </c>
       <c r="F9" t="s">
-        <v>1071</v>
+        <v>1054</v>
       </c>
       <c r="H9" t="s">
         <v>24</v>
@@ -4975,16 +4978,16 @@
     </row>
     <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B10" t="s">
-        <v>1238</v>
+        <v>1221</v>
       </c>
       <c r="C10" t="s">
-        <v>1156</v>
+        <v>1139</v>
       </c>
       <c r="F10" t="s">
-        <v>1072</v>
+        <v>1055</v>
       </c>
       <c r="H10" t="s">
         <v>24</v>
@@ -5007,16 +5010,16 @@
     </row>
     <row r="11" spans="1:29">
       <c r="A11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F11" t="s">
         <v>1056</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1073</v>
       </c>
       <c r="H11" t="s">
         <v>24</v>
@@ -5039,16 +5042,16 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B12" t="s">
-        <v>1240</v>
+        <v>1223</v>
       </c>
       <c r="C12" t="s">
-        <v>1158</v>
+        <v>1141</v>
       </c>
       <c r="F12" t="s">
-        <v>1074</v>
+        <v>1057</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -5071,16 +5074,16 @@
     </row>
     <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B13" t="s">
-        <v>1241</v>
+        <v>1224</v>
       </c>
       <c r="C13" t="s">
-        <v>1159</v>
+        <v>1142</v>
       </c>
       <c r="F13" t="s">
-        <v>1075</v>
+        <v>1058</v>
       </c>
       <c r="H13" t="s">
         <v>24</v>
@@ -5103,16 +5106,16 @@
     </row>
     <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B14" t="s">
-        <v>1242</v>
+        <v>1225</v>
       </c>
       <c r="C14" t="s">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="F14" t="s">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="H14" t="s">
         <v>24</v>
@@ -5135,16 +5138,16 @@
     </row>
     <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B15" t="s">
-        <v>1243</v>
+        <v>1226</v>
       </c>
       <c r="C15" t="s">
-        <v>1161</v>
+        <v>1144</v>
       </c>
       <c r="F15" t="s">
-        <v>1077</v>
+        <v>1060</v>
       </c>
       <c r="H15" t="s">
         <v>24</v>
@@ -5167,16 +5170,16 @@
     </row>
     <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B16" t="s">
-        <v>1244</v>
+        <v>1227</v>
       </c>
       <c r="C16" t="s">
-        <v>1162</v>
+        <v>1145</v>
       </c>
       <c r="F16" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="H16" t="s">
         <v>24</v>
@@ -5199,16 +5202,16 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B17" t="s">
-        <v>1245</v>
+        <v>1228</v>
       </c>
       <c r="C17" t="s">
-        <v>1163</v>
+        <v>1146</v>
       </c>
       <c r="F17" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
       <c r="H17" t="s">
         <v>24</v>
@@ -5231,16 +5234,16 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B18" t="s">
-        <v>1246</v>
+        <v>1229</v>
       </c>
       <c r="C18" t="s">
-        <v>1164</v>
+        <v>1147</v>
       </c>
       <c r="F18" t="s">
-        <v>1080</v>
+        <v>1063</v>
       </c>
       <c r="H18" t="s">
         <v>24</v>
@@ -5263,16 +5266,16 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B19" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="C19" t="s">
-        <v>1165</v>
+        <v>1148</v>
       </c>
       <c r="F19" t="s">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="H19" t="s">
         <v>24</v>
@@ -5295,16 +5298,16 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B20" t="s">
-        <v>1248</v>
+        <v>1231</v>
       </c>
       <c r="C20" t="s">
-        <v>1166</v>
+        <v>1149</v>
       </c>
       <c r="F20" t="s">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="H20" t="s">
         <v>24</v>
@@ -5327,16 +5330,16 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B21" t="s">
-        <v>1249</v>
+        <v>1232</v>
       </c>
       <c r="C21" t="s">
-        <v>1167</v>
+        <v>1150</v>
       </c>
       <c r="F21" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="H21" t="s">
         <v>24</v>
@@ -5359,16 +5362,16 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B22" t="s">
-        <v>1250</v>
+        <v>1233</v>
       </c>
       <c r="C22" t="s">
-        <v>1168</v>
+        <v>1151</v>
       </c>
       <c r="F22" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
       <c r="H22" t="s">
         <v>24</v>
@@ -5391,16 +5394,16 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B23" t="s">
-        <v>1251</v>
+        <v>1234</v>
       </c>
       <c r="C23" t="s">
-        <v>1169</v>
+        <v>1152</v>
       </c>
       <c r="F23" t="s">
-        <v>1085</v>
+        <v>1068</v>
       </c>
       <c r="H23" t="s">
         <v>24</v>
@@ -5423,16 +5426,16 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B24" t="s">
-        <v>1252</v>
+        <v>1235</v>
       </c>
       <c r="C24" t="s">
-        <v>1170</v>
+        <v>1153</v>
       </c>
       <c r="F24" t="s">
-        <v>1086</v>
+        <v>1069</v>
       </c>
       <c r="H24" t="s">
         <v>24</v>
@@ -5455,16 +5458,16 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B25" t="s">
-        <v>1253</v>
+        <v>1236</v>
       </c>
       <c r="C25" t="s">
-        <v>1171</v>
+        <v>1154</v>
       </c>
       <c r="F25" t="s">
-        <v>1087</v>
+        <v>1070</v>
       </c>
       <c r="H25" t="s">
         <v>24</v>
@@ -5487,16 +5490,16 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B26" t="s">
-        <v>1254</v>
+        <v>1237</v>
       </c>
       <c r="C26" t="s">
-        <v>1172</v>
+        <v>1155</v>
       </c>
       <c r="F26" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="H26" t="s">
         <v>24</v>
@@ -5519,16 +5522,16 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B27" t="s">
-        <v>1255</v>
+        <v>1238</v>
       </c>
       <c r="C27" t="s">
-        <v>1173</v>
+        <v>1156</v>
       </c>
       <c r="F27" t="s">
-        <v>1089</v>
+        <v>1072</v>
       </c>
       <c r="H27" t="s">
         <v>24</v>
@@ -5551,16 +5554,16 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B28" t="s">
-        <v>1256</v>
+        <v>1239</v>
       </c>
       <c r="C28" t="s">
-        <v>1174</v>
+        <v>1157</v>
       </c>
       <c r="F28" t="s">
-        <v>1090</v>
+        <v>1073</v>
       </c>
       <c r="H28" t="s">
         <v>24</v>
@@ -5583,16 +5586,16 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B29" t="s">
-        <v>1257</v>
+        <v>1240</v>
       </c>
       <c r="C29" t="s">
-        <v>1175</v>
+        <v>1158</v>
       </c>
       <c r="F29" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
       <c r="H29" t="s">
         <v>24</v>
@@ -5615,16 +5618,16 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B30" t="s">
-        <v>1258</v>
+        <v>1241</v>
       </c>
       <c r="C30" t="s">
-        <v>1176</v>
+        <v>1159</v>
       </c>
       <c r="F30" t="s">
-        <v>1092</v>
+        <v>1075</v>
       </c>
       <c r="H30" t="s">
         <v>24</v>
@@ -5647,16 +5650,16 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B31" t="s">
-        <v>1259</v>
+        <v>1242</v>
       </c>
       <c r="C31" t="s">
-        <v>1177</v>
+        <v>1160</v>
       </c>
       <c r="F31" t="s">
-        <v>1093</v>
+        <v>1076</v>
       </c>
       <c r="H31" t="s">
         <v>24</v>
@@ -5679,16 +5682,16 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B32" t="s">
-        <v>1260</v>
+        <v>1243</v>
       </c>
       <c r="C32" t="s">
-        <v>1178</v>
+        <v>1161</v>
       </c>
       <c r="F32" t="s">
-        <v>1094</v>
+        <v>1077</v>
       </c>
       <c r="H32" t="s">
         <v>24</v>
@@ -5711,16 +5714,16 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B33" t="s">
-        <v>1261</v>
+        <v>1244</v>
       </c>
       <c r="C33" t="s">
-        <v>1179</v>
+        <v>1162</v>
       </c>
       <c r="F33" t="s">
-        <v>1095</v>
+        <v>1078</v>
       </c>
       <c r="H33" t="s">
         <v>24</v>
@@ -5743,19 +5746,19 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B34" t="s">
-        <v>1262</v>
+        <v>1245</v>
       </c>
       <c r="C34" t="s">
-        <v>1180</v>
+        <v>1163</v>
       </c>
       <c r="F34" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
       <c r="H34" t="s">
-        <v>1229</v>
+        <v>1212</v>
       </c>
       <c r="I34" t="s">
         <v>39</v>
@@ -5775,16 +5778,16 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B35" t="s">
-        <v>1263</v>
+        <v>1246</v>
       </c>
       <c r="C35" t="s">
-        <v>1181</v>
+        <v>1164</v>
       </c>
       <c r="F35" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="H35" t="s">
         <v>24</v>
@@ -5807,16 +5810,16 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B36" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="C36" t="s">
-        <v>1182</v>
+        <v>1165</v>
       </c>
       <c r="F36" t="s">
-        <v>1098</v>
+        <v>1081</v>
       </c>
       <c r="H36" t="s">
         <v>24</v>
@@ -5839,16 +5842,16 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B37" t="s">
-        <v>1265</v>
+        <v>1248</v>
       </c>
       <c r="C37" t="s">
-        <v>1183</v>
+        <v>1166</v>
       </c>
       <c r="F37" t="s">
-        <v>1099</v>
+        <v>1082</v>
       </c>
       <c r="H37" t="s">
         <v>24</v>
@@ -5871,16 +5874,16 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B38" t="s">
-        <v>1266</v>
+        <v>1249</v>
       </c>
       <c r="C38" t="s">
-        <v>1184</v>
+        <v>1167</v>
       </c>
       <c r="F38" t="s">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="H38" t="s">
         <v>24</v>
@@ -5903,16 +5906,16 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B39" t="s">
-        <v>1267</v>
+        <v>1250</v>
       </c>
       <c r="C39" t="s">
-        <v>1185</v>
+        <v>1168</v>
       </c>
       <c r="F39" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="H39" t="s">
         <v>24</v>
@@ -5935,16 +5938,16 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B40" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="C40" t="s">
-        <v>1186</v>
+        <v>1169</v>
       </c>
       <c r="F40" t="s">
-        <v>1102</v>
+        <v>1085</v>
       </c>
       <c r="H40" t="s">
         <v>24</v>
@@ -5967,16 +5970,16 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B41" t="s">
-        <v>1269</v>
+        <v>1252</v>
       </c>
       <c r="C41" t="s">
-        <v>1187</v>
+        <v>1170</v>
       </c>
       <c r="F41" t="s">
-        <v>1103</v>
+        <v>1086</v>
       </c>
       <c r="H41" t="s">
         <v>24</v>
@@ -5999,16 +6002,16 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B42" t="s">
-        <v>1270</v>
+        <v>1253</v>
       </c>
       <c r="C42" t="s">
-        <v>1188</v>
+        <v>1171</v>
       </c>
       <c r="F42" t="s">
-        <v>1104</v>
+        <v>1087</v>
       </c>
       <c r="H42" t="s">
         <v>24</v>
@@ -6031,16 +6034,16 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B43" t="s">
-        <v>1271</v>
+        <v>1254</v>
       </c>
       <c r="C43" t="s">
-        <v>1189</v>
+        <v>1172</v>
       </c>
       <c r="F43" t="s">
-        <v>1105</v>
+        <v>1088</v>
       </c>
       <c r="H43" t="s">
         <v>24</v>
@@ -6063,16 +6066,16 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B44" t="s">
-        <v>1272</v>
+        <v>1255</v>
       </c>
       <c r="C44" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="F44" t="s">
-        <v>1106</v>
+        <v>1089</v>
       </c>
       <c r="H44" t="s">
         <v>24</v>
@@ -6095,16 +6098,16 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B45" t="s">
-        <v>1273</v>
+        <v>1256</v>
       </c>
       <c r="C45" t="s">
-        <v>1191</v>
+        <v>1174</v>
       </c>
       <c r="F45" t="s">
-        <v>1107</v>
+        <v>1090</v>
       </c>
       <c r="H45" t="s">
         <v>24</v>
@@ -6127,16 +6130,16 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B46" t="s">
-        <v>1274</v>
+        <v>1257</v>
       </c>
       <c r="C46" t="s">
-        <v>1192</v>
+        <v>1175</v>
       </c>
       <c r="F46" t="s">
-        <v>1108</v>
+        <v>1091</v>
       </c>
       <c r="H46" t="s">
         <v>24</v>
@@ -6159,16 +6162,16 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B47" t="s">
-        <v>1275</v>
+        <v>1258</v>
       </c>
       <c r="C47" t="s">
-        <v>1193</v>
+        <v>1176</v>
       </c>
       <c r="F47" t="s">
-        <v>1109</v>
+        <v>1092</v>
       </c>
       <c r="H47" t="s">
         <v>24</v>
@@ -6191,16 +6194,16 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B48" t="s">
-        <v>1276</v>
+        <v>1259</v>
       </c>
       <c r="C48" t="s">
-        <v>1194</v>
+        <v>1177</v>
       </c>
       <c r="F48" t="s">
-        <v>1110</v>
+        <v>1093</v>
       </c>
       <c r="H48" t="s">
         <v>24</v>
@@ -6223,16 +6226,16 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B49" t="s">
-        <v>1277</v>
+        <v>1260</v>
       </c>
       <c r="C49" t="s">
-        <v>1195</v>
+        <v>1178</v>
       </c>
       <c r="F49" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="H49" t="s">
         <v>24</v>
@@ -6255,16 +6258,16 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B50" t="s">
-        <v>1278</v>
+        <v>1261</v>
       </c>
       <c r="C50" t="s">
-        <v>1196</v>
+        <v>1179</v>
       </c>
       <c r="F50" t="s">
-        <v>1112</v>
+        <v>1095</v>
       </c>
       <c r="H50" t="s">
         <v>24</v>
@@ -6287,16 +6290,16 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B51" t="s">
-        <v>1279</v>
+        <v>1262</v>
       </c>
       <c r="C51" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="F51" t="s">
-        <v>1113</v>
+        <v>1096</v>
       </c>
       <c r="H51" t="s">
         <v>24</v>
@@ -6319,16 +6322,16 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B52" t="s">
-        <v>1280</v>
+        <v>1263</v>
       </c>
       <c r="C52" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="F52" t="s">
-        <v>1114</v>
+        <v>1097</v>
       </c>
       <c r="H52" t="s">
         <v>24</v>
@@ -6351,16 +6354,16 @@
     </row>
     <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B53" t="s">
-        <v>1281</v>
+        <v>1264</v>
       </c>
       <c r="C53" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="F53" t="s">
-        <v>1115</v>
+        <v>1098</v>
       </c>
       <c r="H53" t="s">
         <v>24</v>
@@ -6383,16 +6386,16 @@
     </row>
     <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B54" t="s">
-        <v>1282</v>
+        <v>1265</v>
       </c>
       <c r="C54" t="s">
-        <v>1200</v>
+        <v>1183</v>
       </c>
       <c r="F54" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
       <c r="H54" t="s">
         <v>24</v>
@@ -6415,16 +6418,16 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B55" t="s">
-        <v>1283</v>
+        <v>1266</v>
       </c>
       <c r="C55" t="s">
-        <v>1201</v>
+        <v>1184</v>
       </c>
       <c r="F55" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="H55" t="s">
         <v>24</v>
@@ -6447,16 +6450,16 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B56" t="s">
-        <v>1284</v>
+        <v>1267</v>
       </c>
       <c r="C56" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
       <c r="F56" t="s">
-        <v>1118</v>
+        <v>1101</v>
       </c>
       <c r="H56" t="s">
         <v>24</v>
@@ -6479,16 +6482,16 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B57" t="s">
-        <v>1285</v>
+        <v>1268</v>
       </c>
       <c r="C57" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
       <c r="F57" t="s">
-        <v>1119</v>
+        <v>1102</v>
       </c>
       <c r="H57" t="s">
         <v>24</v>
@@ -6511,16 +6514,16 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B58" t="s">
-        <v>1286</v>
+        <v>1269</v>
       </c>
       <c r="C58" t="s">
-        <v>1204</v>
+        <v>1187</v>
       </c>
       <c r="F58" t="s">
-        <v>1120</v>
+        <v>1103</v>
       </c>
       <c r="H58" t="s">
         <v>24</v>
@@ -6543,16 +6546,16 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B59" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="C59" t="s">
-        <v>1205</v>
+        <v>1188</v>
       </c>
       <c r="F59" t="s">
-        <v>1121</v>
+        <v>1104</v>
       </c>
       <c r="H59" t="s">
         <v>24</v>
@@ -6575,16 +6578,16 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B60" t="s">
-        <v>1288</v>
+        <v>1271</v>
       </c>
       <c r="C60" t="s">
-        <v>1206</v>
+        <v>1189</v>
       </c>
       <c r="F60" t="s">
-        <v>1122</v>
+        <v>1105</v>
       </c>
       <c r="H60" t="s">
         <v>24</v>
@@ -6607,16 +6610,16 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B61" t="s">
-        <v>1289</v>
+        <v>1272</v>
       </c>
       <c r="C61" t="s">
-        <v>1207</v>
+        <v>1190</v>
       </c>
       <c r="F61" t="s">
-        <v>1123</v>
+        <v>1106</v>
       </c>
       <c r="H61" t="s">
         <v>24</v>
@@ -6639,16 +6642,16 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B62" t="s">
-        <v>1290</v>
+        <v>1273</v>
       </c>
       <c r="C62" t="s">
-        <v>1208</v>
+        <v>1191</v>
       </c>
       <c r="F62" t="s">
-        <v>1124</v>
+        <v>1107</v>
       </c>
       <c r="H62" t="s">
         <v>24</v>
@@ -6671,16 +6674,16 @@
     </row>
     <row r="63" spans="1:27">
       <c r="A63" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B63" t="s">
-        <v>1291</v>
+        <v>1274</v>
       </c>
       <c r="C63" t="s">
-        <v>1209</v>
+        <v>1192</v>
       </c>
       <c r="F63" t="s">
-        <v>1125</v>
+        <v>1108</v>
       </c>
       <c r="H63" t="s">
         <v>24</v>
@@ -6703,16 +6706,16 @@
     </row>
     <row r="64" spans="1:27">
       <c r="A64" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B64" t="s">
-        <v>1292</v>
+        <v>1275</v>
       </c>
       <c r="C64" t="s">
-        <v>1210</v>
+        <v>1193</v>
       </c>
       <c r="F64" t="s">
-        <v>1126</v>
+        <v>1109</v>
       </c>
       <c r="H64" t="s">
         <v>24</v>
@@ -6735,16 +6738,16 @@
     </row>
     <row r="65" spans="1:27">
       <c r="A65" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B65" t="s">
-        <v>1293</v>
+        <v>1276</v>
       </c>
       <c r="C65" t="s">
-        <v>1211</v>
+        <v>1194</v>
       </c>
       <c r="F65" t="s">
-        <v>1127</v>
+        <v>1110</v>
       </c>
       <c r="H65" t="s">
         <v>24</v>
@@ -6767,16 +6770,16 @@
     </row>
     <row r="66" spans="1:27">
       <c r="A66" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B66" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="C66" t="s">
-        <v>1212</v>
+        <v>1195</v>
       </c>
       <c r="F66" t="s">
-        <v>1128</v>
+        <v>1111</v>
       </c>
       <c r="H66" t="s">
         <v>24</v>
@@ -6799,16 +6802,16 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B67" t="s">
-        <v>1295</v>
+        <v>1278</v>
       </c>
       <c r="C67" t="s">
-        <v>1213</v>
+        <v>1196</v>
       </c>
       <c r="F67" t="s">
-        <v>1129</v>
+        <v>1112</v>
       </c>
       <c r="H67" t="s">
         <v>24</v>
@@ -6831,16 +6834,16 @@
     </row>
     <row r="68" spans="1:27">
       <c r="A68" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B68" t="s">
-        <v>1296</v>
+        <v>1279</v>
       </c>
       <c r="C68" t="s">
-        <v>1214</v>
+        <v>1197</v>
       </c>
       <c r="F68" t="s">
-        <v>1130</v>
+        <v>1113</v>
       </c>
       <c r="H68" t="s">
         <v>24</v>
@@ -6863,13 +6866,13 @@
     </row>
     <row r="69" spans="1:27">
       <c r="A69" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B69" t="s">
-        <v>1297</v>
+        <v>1280</v>
       </c>
       <c r="F69" t="s">
-        <v>1131</v>
+        <v>1114</v>
       </c>
       <c r="H69" t="s">
         <v>24</v>
@@ -6892,16 +6895,16 @@
     </row>
     <row r="70" spans="1:27">
       <c r="A70" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B70" t="s">
-        <v>1298</v>
+        <v>1281</v>
       </c>
       <c r="C70" t="s">
-        <v>1215</v>
+        <v>1198</v>
       </c>
       <c r="F70" t="s">
-        <v>1132</v>
+        <v>1115</v>
       </c>
       <c r="H70" t="s">
         <v>24</v>
@@ -6924,13 +6927,13 @@
     </row>
     <row r="71" spans="1:27">
       <c r="A71" t="s">
-        <v>1057</v>
+        <v>1040</v>
       </c>
       <c r="B71" t="s">
-        <v>1216</v>
+        <v>1199</v>
       </c>
       <c r="F71" t="s">
-        <v>1133</v>
+        <v>1116</v>
       </c>
       <c r="H71" t="s">
         <v>24</v>
@@ -6953,13 +6956,13 @@
     </row>
     <row r="72" spans="1:27">
       <c r="A72" t="s">
-        <v>1058</v>
+        <v>1041</v>
       </c>
       <c r="B72" t="s">
         <v>543</v>
       </c>
       <c r="F72" t="s">
-        <v>1134</v>
+        <v>1117</v>
       </c>
       <c r="H72" t="s">
         <v>24</v>
@@ -6982,13 +6985,13 @@
     </row>
     <row r="73" spans="1:27">
       <c r="A73" t="s">
-        <v>1059</v>
+        <v>1042</v>
       </c>
       <c r="B73" t="s">
         <v>549</v>
       </c>
       <c r="F73" t="s">
-        <v>1135</v>
+        <v>1118</v>
       </c>
       <c r="H73" t="s">
         <v>24</v>
@@ -7011,13 +7014,13 @@
     </row>
     <row r="74" spans="1:27">
       <c r="A74" t="s">
-        <v>1060</v>
+        <v>1043</v>
       </c>
       <c r="B74" t="s">
         <v>541</v>
       </c>
       <c r="F74" t="s">
-        <v>1136</v>
+        <v>1119</v>
       </c>
       <c r="H74" t="s">
         <v>24</v>
@@ -7040,13 +7043,13 @@
     </row>
     <row r="75" spans="1:27">
       <c r="A75" t="s">
-        <v>1061</v>
+        <v>1044</v>
       </c>
       <c r="B75" t="s">
         <v>547</v>
       </c>
       <c r="F75" t="s">
-        <v>1137</v>
+        <v>1120</v>
       </c>
       <c r="H75" t="s">
         <v>24</v>
@@ -7069,13 +7072,13 @@
     </row>
     <row r="76" spans="1:27">
       <c r="A76" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="B76" t="s">
-        <v>1217</v>
+        <v>1200</v>
       </c>
       <c r="F76" t="s">
-        <v>1138</v>
+        <v>1121</v>
       </c>
       <c r="H76" t="s">
         <v>24</v>
@@ -7098,13 +7101,13 @@
     </row>
     <row r="77" spans="1:27">
       <c r="A77" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="B77" t="s">
-        <v>1218</v>
+        <v>1201</v>
       </c>
       <c r="F77" t="s">
-        <v>1139</v>
+        <v>1122</v>
       </c>
       <c r="H77" t="s">
         <v>24</v>
@@ -7127,13 +7130,13 @@
     </row>
     <row r="78" spans="1:27">
       <c r="A78" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="B78" t="s">
-        <v>1219</v>
+        <v>1202</v>
       </c>
       <c r="F78" t="s">
-        <v>1140</v>
+        <v>1123</v>
       </c>
       <c r="H78" t="s">
         <v>24</v>
@@ -7156,13 +7159,13 @@
     </row>
     <row r="79" spans="1:27">
       <c r="A79" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="B79" t="s">
-        <v>1220</v>
+        <v>1203</v>
       </c>
       <c r="F79" t="s">
-        <v>1141</v>
+        <v>1124</v>
       </c>
       <c r="H79" t="s">
         <v>24</v>
@@ -7185,13 +7188,13 @@
     </row>
     <row r="80" spans="1:27">
       <c r="A80" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="B80" t="s">
-        <v>1221</v>
+        <v>1204</v>
       </c>
       <c r="F80" t="s">
-        <v>1142</v>
+        <v>1125</v>
       </c>
       <c r="H80" t="s">
         <v>24</v>
@@ -7214,13 +7217,13 @@
     </row>
     <row r="81" spans="1:27">
       <c r="A81" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="B81" t="s">
-        <v>1222</v>
+        <v>1205</v>
       </c>
       <c r="F81" t="s">
-        <v>1143</v>
+        <v>1126</v>
       </c>
       <c r="H81" t="s">
         <v>24</v>
@@ -7243,13 +7246,13 @@
     </row>
     <row r="82" spans="1:27">
       <c r="A82" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="B82" t="s">
-        <v>1223</v>
+        <v>1206</v>
       </c>
       <c r="F82" t="s">
-        <v>1144</v>
+        <v>1127</v>
       </c>
       <c r="H82" t="s">
         <v>24</v>
@@ -7272,13 +7275,13 @@
     </row>
     <row r="83" spans="1:27">
       <c r="A83" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="B83" t="s">
-        <v>1224</v>
+        <v>1207</v>
       </c>
       <c r="F83" t="s">
-        <v>1145</v>
+        <v>1128</v>
       </c>
       <c r="H83" t="s">
         <v>24</v>
@@ -7301,13 +7304,13 @@
     </row>
     <row r="84" spans="1:27">
       <c r="A84" t="s">
-        <v>1063</v>
+        <v>1046</v>
       </c>
       <c r="B84" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="F84" t="s">
-        <v>1146</v>
+        <v>1129</v>
       </c>
       <c r="H84" t="s">
         <v>24</v>
@@ -7333,10 +7336,10 @@
         <v>377</v>
       </c>
       <c r="B85" t="s">
-        <v>1225</v>
+        <v>1208</v>
       </c>
       <c r="F85" t="s">
-        <v>1147</v>
+        <v>1130</v>
       </c>
       <c r="H85" t="s">
         <v>24</v>
@@ -7362,10 +7365,10 @@
         <v>377</v>
       </c>
       <c r="B86" t="s">
-        <v>1226</v>
+        <v>1209</v>
       </c>
       <c r="F86" t="s">
-        <v>1148</v>
+        <v>1131</v>
       </c>
       <c r="H86" t="s">
         <v>24</v>
@@ -7391,10 +7394,10 @@
         <v>377</v>
       </c>
       <c r="B87" t="s">
-        <v>1227</v>
+        <v>1210</v>
       </c>
       <c r="F87" t="s">
-        <v>1149</v>
+        <v>1132</v>
       </c>
       <c r="H87" t="s">
         <v>24</v>
@@ -7420,10 +7423,10 @@
         <v>377</v>
       </c>
       <c r="B88" t="s">
-        <v>1228</v>
+        <v>1211</v>
       </c>
       <c r="F88" t="s">
-        <v>1150</v>
+        <v>1133</v>
       </c>
       <c r="H88" t="s">
         <v>24</v>
@@ -7446,16 +7449,16 @@
     </row>
     <row r="89" spans="1:27">
       <c r="A89" t="s">
-        <v>1299</v>
+        <v>1282</v>
       </c>
       <c r="B89" s="11">
         <v>201090434</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>1359</v>
+        <v>1342</v>
       </c>
       <c r="F89" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="H89" t="s">
         <v>24</v>
@@ -7478,16 +7481,16 @@
     </row>
     <row r="90" spans="1:27">
       <c r="A90" t="s">
-        <v>1299</v>
+        <v>1282</v>
       </c>
       <c r="B90" s="11">
         <v>201090435</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>1360</v>
+        <v>1343</v>
       </c>
       <c r="F90" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="H90" t="s">
         <v>24</v>
@@ -7510,16 +7513,16 @@
     </row>
     <row r="91" spans="1:27">
       <c r="A91" t="s">
-        <v>1299</v>
+        <v>1282</v>
       </c>
       <c r="B91" s="11">
         <v>201090436</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>1361</v>
+        <v>1344</v>
       </c>
       <c r="F91" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="H91" t="s">
         <v>24</v>
@@ -7542,16 +7545,16 @@
     </row>
     <row r="92" spans="1:27">
       <c r="A92" t="s">
-        <v>1299</v>
+        <v>1282</v>
       </c>
       <c r="B92" s="11">
         <v>201090437</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="F92" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="H92" t="s">
         <v>24</v>
@@ -7574,16 +7577,16 @@
     </row>
     <row r="93" spans="1:27">
       <c r="A93" t="s">
-        <v>1299</v>
+        <v>1282</v>
       </c>
       <c r="B93" s="11">
         <v>201090438</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>1363</v>
+        <v>1346</v>
       </c>
       <c r="F93" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="H93" t="s">
         <v>24</v>
@@ -7606,16 +7609,16 @@
     </row>
     <row r="94" spans="1:27">
       <c r="A94" t="s">
-        <v>1300</v>
+        <v>1283</v>
       </c>
       <c r="B94" s="11">
         <v>201060080</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>1364</v>
+        <v>1347</v>
       </c>
       <c r="F94" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="H94" t="s">
         <v>24</v>
@@ -7638,16 +7641,16 @@
     </row>
     <row r="95" spans="1:27">
       <c r="A95" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="B95" s="11">
         <v>201050518</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>1365</v>
+        <v>1348</v>
       </c>
       <c r="F95" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="H95" t="s">
         <v>24</v>
@@ -7670,16 +7673,16 @@
     </row>
     <row r="96" spans="1:27">
       <c r="A96" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="B96" s="11">
         <v>201050519</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>1366</v>
+        <v>1349</v>
       </c>
       <c r="F96" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="H96" t="s">
         <v>24</v>
@@ -7702,16 +7705,16 @@
     </row>
     <row r="97" spans="1:27">
       <c r="A97" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="B97" s="11">
         <v>201050520</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>1367</v>
+        <v>1350</v>
       </c>
       <c r="F97" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
       <c r="H97" t="s">
         <v>24</v>
@@ -7734,16 +7737,16 @@
     </row>
     <row r="98" spans="1:27">
       <c r="A98" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="B98" s="11">
         <v>201050521</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>1368</v>
+        <v>1351</v>
       </c>
       <c r="F98" t="s">
-        <v>1322</v>
+        <v>1305</v>
       </c>
       <c r="H98" t="s">
         <v>24</v>
@@ -7766,16 +7769,16 @@
     </row>
     <row r="99" spans="1:27">
       <c r="A99" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="B99" s="11">
         <v>201050522</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>1369</v>
+        <v>1352</v>
       </c>
       <c r="F99" t="s">
-        <v>1323</v>
+        <v>1306</v>
       </c>
       <c r="H99" t="s">
         <v>24</v>
@@ -7798,16 +7801,16 @@
     </row>
     <row r="100" spans="1:27">
       <c r="A100" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="B100" s="11">
         <v>201050523</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>1370</v>
+        <v>1353</v>
       </c>
       <c r="F100" t="s">
-        <v>1324</v>
+        <v>1307</v>
       </c>
       <c r="H100" t="s">
         <v>24</v>
@@ -7830,16 +7833,16 @@
     </row>
     <row r="101" spans="1:27">
       <c r="A101" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="B101" s="11">
         <v>201050524</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>1371</v>
+        <v>1354</v>
       </c>
       <c r="F101" t="s">
-        <v>1325</v>
+        <v>1308</v>
       </c>
       <c r="H101" t="s">
         <v>24</v>
@@ -7862,16 +7865,16 @@
     </row>
     <row r="102" spans="1:27">
       <c r="A102" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="B102" s="11">
         <v>201050525</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>1372</v>
+        <v>1355</v>
       </c>
       <c r="F102" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
       <c r="H102" t="s">
         <v>24</v>
@@ -7894,16 +7897,16 @@
     </row>
     <row r="103" spans="1:27">
       <c r="A103" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="B103" s="11">
         <v>201050526</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>1373</v>
+        <v>1356</v>
       </c>
       <c r="F103" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
       <c r="H103" t="s">
         <v>24</v>
@@ -7926,16 +7929,16 @@
     </row>
     <row r="104" spans="1:27">
       <c r="A104" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="B104" s="11">
         <v>201050527</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>1374</v>
+        <v>1357</v>
       </c>
       <c r="F104" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="H104" t="s">
         <v>24</v>
@@ -7958,16 +7961,16 @@
     </row>
     <row r="105" spans="1:27">
       <c r="A105" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="B105" s="11">
         <v>201050528</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>1375</v>
+        <v>1358</v>
       </c>
       <c r="F105" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="H105" t="s">
         <v>24</v>
@@ -7990,16 +7993,16 @@
     </row>
     <row r="106" spans="1:27">
       <c r="A106" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="B106" s="11">
         <v>301010096</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>1376</v>
+        <v>1359</v>
       </c>
       <c r="F106" t="s">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="H106" t="s">
         <v>24</v>
@@ -8022,16 +8025,16 @@
     </row>
     <row r="107" spans="1:27">
       <c r="A107" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="B107" s="11">
         <v>301010097</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>1377</v>
+        <v>1360</v>
       </c>
       <c r="F107" t="s">
-        <v>1329</v>
+        <v>1312</v>
       </c>
       <c r="H107" t="s">
         <v>24</v>
@@ -8054,16 +8057,16 @@
     </row>
     <row r="108" spans="1:27">
       <c r="A108" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="B108" s="11">
         <v>301010098</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>1378</v>
+        <v>1361</v>
       </c>
       <c r="F108" t="s">
-        <v>1330</v>
+        <v>1313</v>
       </c>
       <c r="H108" t="s">
         <v>24</v>
@@ -8086,16 +8089,16 @@
     </row>
     <row r="109" spans="1:27">
       <c r="A109" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="B109" s="11">
         <v>301010099</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>1379</v>
+        <v>1362</v>
       </c>
       <c r="F109" t="s">
-        <v>1331</v>
+        <v>1314</v>
       </c>
       <c r="H109" t="s">
         <v>24</v>
@@ -8118,16 +8121,16 @@
     </row>
     <row r="110" spans="1:27">
       <c r="A110" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="B110" s="11">
         <v>301010100</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>1380</v>
+        <v>1363</v>
       </c>
       <c r="F110" t="s">
-        <v>1332</v>
+        <v>1315</v>
       </c>
       <c r="H110" t="s">
         <v>24</v>
@@ -8150,19 +8153,19 @@
     </row>
     <row r="111" spans="1:27">
       <c r="A111" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="B111" s="11">
         <v>406010130</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>1381</v>
+        <v>1364</v>
       </c>
       <c r="F111" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
       <c r="H111" t="s">
-        <v>1407</v>
+        <v>1390</v>
       </c>
       <c r="I111" t="s">
         <v>21</v>
@@ -8182,19 +8185,19 @@
     </row>
     <row r="112" spans="1:27">
       <c r="A112" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="B112" s="11">
         <v>406010131</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>1382</v>
+        <v>1365</v>
       </c>
       <c r="F112" t="s">
-        <v>1334</v>
+        <v>1317</v>
       </c>
       <c r="H112" t="s">
-        <v>1407</v>
+        <v>1390</v>
       </c>
       <c r="I112" t="s">
         <v>21</v>
@@ -8214,19 +8217,19 @@
     </row>
     <row r="113" spans="1:27">
       <c r="A113" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="B113" s="11">
         <v>406010132</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>1383</v>
+        <v>1366</v>
       </c>
       <c r="F113" t="s">
-        <v>1335</v>
+        <v>1318</v>
       </c>
       <c r="H113" t="s">
-        <v>1407</v>
+        <v>1390</v>
       </c>
       <c r="I113" t="s">
         <v>21</v>
@@ -8246,19 +8249,19 @@
     </row>
     <row r="114" spans="1:27">
       <c r="A114" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="B114" s="11">
         <v>406010133</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>1384</v>
+        <v>1367</v>
       </c>
       <c r="F114" t="s">
-        <v>1336</v>
+        <v>1319</v>
       </c>
       <c r="H114" t="s">
-        <v>1407</v>
+        <v>1390</v>
       </c>
       <c r="I114" t="s">
         <v>21</v>
@@ -8278,19 +8281,19 @@
     </row>
     <row r="115" spans="1:27">
       <c r="A115" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="B115" s="11">
         <v>406010134</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>1385</v>
+        <v>1368</v>
       </c>
       <c r="F115" t="s">
-        <v>1337</v>
+        <v>1320</v>
       </c>
       <c r="H115" t="s">
-        <v>1407</v>
+        <v>1390</v>
       </c>
       <c r="I115" t="s">
         <v>21</v>
@@ -8310,19 +8313,19 @@
     </row>
     <row r="116" spans="1:27">
       <c r="A116" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="B116" s="11">
         <v>406010135</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>1386</v>
+        <v>1369</v>
       </c>
       <c r="F116" t="s">
-        <v>1338</v>
+        <v>1321</v>
       </c>
       <c r="H116" t="s">
-        <v>1407</v>
+        <v>1390</v>
       </c>
       <c r="I116" t="s">
         <v>21</v>
@@ -8342,19 +8345,19 @@
     </row>
     <row r="117" spans="1:27">
       <c r="A117" t="s">
-        <v>1304</v>
+        <v>1287</v>
       </c>
       <c r="B117" s="11">
         <v>404030019</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>1387</v>
+        <v>1370</v>
       </c>
       <c r="F117" t="s">
-        <v>1339</v>
+        <v>1322</v>
       </c>
       <c r="H117" t="s">
-        <v>1407</v>
+        <v>1390</v>
       </c>
       <c r="I117" t="s">
         <v>21</v>
@@ -8374,19 +8377,19 @@
     </row>
     <row r="118" spans="1:27">
       <c r="A118" t="s">
-        <v>1304</v>
+        <v>1287</v>
       </c>
       <c r="B118" s="11">
         <v>404030020</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>1388</v>
+        <v>1371</v>
       </c>
       <c r="F118" t="s">
-        <v>1340</v>
+        <v>1323</v>
       </c>
       <c r="H118" t="s">
-        <v>1407</v>
+        <v>1390</v>
       </c>
       <c r="I118" t="s">
         <v>21</v>
@@ -8406,16 +8409,16 @@
     </row>
     <row r="119" spans="1:27">
       <c r="A119" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="B119" s="11">
         <v>304010050</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>1389</v>
+        <v>1372</v>
       </c>
       <c r="F119" t="s">
-        <v>1341</v>
+        <v>1324</v>
       </c>
       <c r="H119" t="s">
         <v>24</v>
@@ -8438,16 +8441,16 @@
     </row>
     <row r="120" spans="1:27">
       <c r="A120" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="B120" s="11">
         <v>304010051</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>1390</v>
+        <v>1373</v>
       </c>
       <c r="F120" t="s">
-        <v>1342</v>
+        <v>1325</v>
       </c>
       <c r="H120" t="s">
         <v>24</v>
@@ -8470,16 +8473,16 @@
     </row>
     <row r="121" spans="1:27">
       <c r="A121" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="B121" s="11">
         <v>304010052</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>1391</v>
+        <v>1374</v>
       </c>
       <c r="F121" t="s">
-        <v>1343</v>
+        <v>1326</v>
       </c>
       <c r="H121" t="s">
         <v>24</v>
@@ -8502,16 +8505,16 @@
     </row>
     <row r="122" spans="1:27">
       <c r="A122" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="B122" s="11">
         <v>403010046</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>1392</v>
+        <v>1375</v>
       </c>
       <c r="F122" t="s">
-        <v>1344</v>
+        <v>1327</v>
       </c>
       <c r="H122" t="s">
         <v>24</v>
@@ -8534,16 +8537,16 @@
     </row>
     <row r="123" spans="1:27">
       <c r="A123" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="B123" s="11">
         <v>403010047</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>1393</v>
+        <v>1376</v>
       </c>
       <c r="F123" t="s">
-        <v>1345</v>
+        <v>1328</v>
       </c>
       <c r="H123" t="s">
         <v>24</v>
@@ -8566,16 +8569,16 @@
     </row>
     <row r="124" spans="1:27">
       <c r="A124" t="s">
-        <v>1307</v>
+        <v>1290</v>
       </c>
       <c r="B124" s="11">
         <v>403060002</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>1394</v>
+        <v>1377</v>
       </c>
       <c r="F124" t="s">
-        <v>1346</v>
+        <v>1329</v>
       </c>
       <c r="H124" t="s">
         <v>24</v>
@@ -8598,16 +8601,16 @@
     </row>
     <row r="125" spans="1:27">
       <c r="A125" t="s">
-        <v>1307</v>
+        <v>1290</v>
       </c>
       <c r="B125" s="11">
         <v>403060003</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>1395</v>
+        <v>1378</v>
       </c>
       <c r="F125" t="s">
-        <v>1347</v>
+        <v>1330</v>
       </c>
       <c r="H125" t="s">
         <v>24</v>
@@ -8630,16 +8633,16 @@
     </row>
     <row r="126" spans="1:27">
       <c r="A126" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="B126" s="11">
         <v>413010297</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>1396</v>
+        <v>1379</v>
       </c>
       <c r="F126" t="s">
-        <v>1348</v>
+        <v>1331</v>
       </c>
       <c r="H126" t="s">
         <v>24</v>
@@ -8662,16 +8665,16 @@
     </row>
     <row r="127" spans="1:27">
       <c r="A127" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="B127" s="11">
         <v>413010298</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>1397</v>
+        <v>1380</v>
       </c>
       <c r="F127" t="s">
-        <v>1349</v>
+        <v>1332</v>
       </c>
       <c r="H127" t="s">
         <v>24</v>
@@ -8694,16 +8697,16 @@
     </row>
     <row r="128" spans="1:27">
       <c r="A128" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="B128" s="11">
         <v>413010299</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>1398</v>
+        <v>1381</v>
       </c>
       <c r="F128" t="s">
-        <v>1350</v>
+        <v>1333</v>
       </c>
       <c r="H128" t="s">
         <v>24</v>
@@ -8726,16 +8729,16 @@
     </row>
     <row r="129" spans="1:27">
       <c r="A129" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="B129" s="11">
         <v>520020013</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>1399</v>
+        <v>1382</v>
       </c>
       <c r="F129" t="s">
-        <v>1351</v>
+        <v>1334</v>
       </c>
       <c r="H129" t="s">
         <v>24</v>
@@ -8758,16 +8761,16 @@
     </row>
     <row r="130" spans="1:27">
       <c r="A130" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="B130" s="11">
         <v>418010012</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>1400</v>
+        <v>1383</v>
       </c>
       <c r="F130" t="s">
-        <v>1352</v>
+        <v>1335</v>
       </c>
       <c r="H130" t="s">
         <v>24</v>
@@ -8790,16 +8793,16 @@
     </row>
     <row r="131" spans="1:27">
       <c r="A131" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="B131" s="11">
         <v>418010013</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>1401</v>
+        <v>1384</v>
       </c>
       <c r="F131" t="s">
-        <v>1353</v>
+        <v>1336</v>
       </c>
       <c r="H131" t="s">
         <v>24</v>
@@ -8822,16 +8825,16 @@
     </row>
     <row r="132" spans="1:27">
       <c r="A132" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="B132" s="11">
         <v>418010014</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>1402</v>
+        <v>1385</v>
       </c>
       <c r="F132" t="s">
-        <v>1354</v>
+        <v>1337</v>
       </c>
       <c r="H132" t="s">
         <v>24</v>
@@ -8854,16 +8857,16 @@
     </row>
     <row r="133" spans="1:27">
       <c r="A133" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="B133" s="11">
         <v>418010015</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>1403</v>
+        <v>1386</v>
       </c>
       <c r="F133" t="s">
-        <v>1355</v>
+        <v>1338</v>
       </c>
       <c r="H133" t="s">
         <v>24</v>
@@ -8886,16 +8889,16 @@
     </row>
     <row r="134" spans="1:27">
       <c r="A134" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="B134" s="11">
         <v>411010006</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>1404</v>
+        <v>1387</v>
       </c>
       <c r="F134" t="s">
-        <v>1356</v>
+        <v>1339</v>
       </c>
       <c r="H134" t="s">
         <v>0</v>
@@ -8918,16 +8921,16 @@
     </row>
     <row r="135" spans="1:27">
       <c r="A135" t="s">
-        <v>1312</v>
+        <v>1295</v>
       </c>
       <c r="B135" s="11">
         <v>60104020022</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>1405</v>
+        <v>1388</v>
       </c>
       <c r="F135" t="s">
-        <v>1357</v>
+        <v>1340</v>
       </c>
       <c r="H135" t="s">
         <v>24</v>
@@ -8950,16 +8953,16 @@
     </row>
     <row r="136" spans="1:27">
       <c r="A136" t="s">
-        <v>1312</v>
+        <v>1295</v>
       </c>
       <c r="B136" s="11">
         <v>60104020023</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>1406</v>
+        <v>1389</v>
       </c>
       <c r="F136" t="s">
-        <v>1358</v>
+        <v>1341</v>
       </c>
       <c r="H136" t="s">
         <v>24</v>
@@ -8990,8 +8993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC426"/>
   <sheetViews>
-    <sheetView topLeftCell="D165" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="A395" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C415" sqref="C415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21465,13 +21468,13 @@
         <v>365</v>
       </c>
       <c r="B402" t="s">
-        <v>1021</v>
+        <v>1004</v>
       </c>
       <c r="C402" t="s">
         <v>613</v>
       </c>
       <c r="F402" t="s">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="H402" t="s">
         <v>24</v>
@@ -21497,13 +21500,13 @@
         <v>47</v>
       </c>
       <c r="B403" t="s">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="C403" t="s">
         <v>614</v>
       </c>
       <c r="F403" t="s">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="H403" t="s">
         <v>24</v>
@@ -21529,13 +21532,13 @@
         <v>47</v>
       </c>
       <c r="B404" t="s">
-        <v>1023</v>
+        <v>1006</v>
       </c>
       <c r="C404" t="s">
         <v>615</v>
       </c>
       <c r="F404" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="H404" t="s">
         <v>24</v>
@@ -21561,13 +21564,13 @@
         <v>993</v>
       </c>
       <c r="B405" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="C405" t="s">
         <v>616</v>
       </c>
       <c r="F405" t="s">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="H405" t="s">
         <v>24</v>
@@ -21593,13 +21596,13 @@
         <v>993</v>
       </c>
       <c r="B406" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="C406" t="s">
         <v>617</v>
       </c>
       <c r="F406" t="s">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="H406" t="s">
         <v>38</v>
@@ -21625,13 +21628,13 @@
         <v>994</v>
       </c>
       <c r="B407" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="C407" t="s">
         <v>618</v>
       </c>
       <c r="F407" t="s">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="H407" t="s">
         <v>234</v>
@@ -21657,13 +21660,13 @@
         <v>995</v>
       </c>
       <c r="B408" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="C408" t="s">
         <v>1002</v>
       </c>
       <c r="F408" t="s">
-        <v>1034</v>
+        <v>1017</v>
       </c>
       <c r="H408" t="s">
         <v>24</v>
@@ -21689,10 +21692,10 @@
         <v>377</v>
       </c>
       <c r="B409" t="s">
-        <v>1003</v>
+        <v>1391</v>
       </c>
       <c r="F409" t="s">
-        <v>1035</v>
+        <v>1018</v>
       </c>
       <c r="H409" t="s">
         <v>905</v>
@@ -21718,10 +21721,10 @@
         <v>377</v>
       </c>
       <c r="B410" t="s">
-        <v>1004</v>
+        <v>1392</v>
       </c>
       <c r="F410" t="s">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="H410" t="s">
         <v>905</v>
@@ -21747,10 +21750,10 @@
         <v>377</v>
       </c>
       <c r="B411" t="s">
-        <v>1005</v>
+        <v>1393</v>
       </c>
       <c r="F411" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="H411" t="s">
         <v>905</v>
@@ -21776,10 +21779,10 @@
         <v>377</v>
       </c>
       <c r="B412" t="s">
-        <v>1006</v>
+        <v>1394</v>
       </c>
       <c r="F412" t="s">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="H412" t="s">
         <v>905</v>
@@ -21805,10 +21808,10 @@
         <v>377</v>
       </c>
       <c r="B413" t="s">
-        <v>1007</v>
+        <v>1395</v>
       </c>
       <c r="F413" t="s">
-        <v>1039</v>
+        <v>1022</v>
       </c>
       <c r="H413" t="s">
         <v>905</v>
@@ -21834,10 +21837,10 @@
         <v>377</v>
       </c>
       <c r="B414" t="s">
-        <v>1008</v>
+        <v>1396</v>
       </c>
       <c r="F414" t="s">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="H414" t="s">
         <v>905</v>
@@ -21863,10 +21866,10 @@
         <v>996</v>
       </c>
       <c r="B415" t="s">
-        <v>1009</v>
+        <v>1397</v>
       </c>
       <c r="F415" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="H415" t="s">
         <v>24</v>
@@ -21892,10 +21895,10 @@
         <v>378</v>
       </c>
       <c r="B416" t="s">
-        <v>1010</v>
+        <v>1398</v>
       </c>
       <c r="F416" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="H416" t="s">
         <v>24</v>
@@ -21921,10 +21924,10 @@
         <v>997</v>
       </c>
       <c r="B417" t="s">
-        <v>1011</v>
+        <v>1399</v>
       </c>
       <c r="F417" t="s">
-        <v>1043</v>
+        <v>1026</v>
       </c>
       <c r="H417" t="s">
         <v>24</v>
@@ -21950,10 +21953,10 @@
         <v>998</v>
       </c>
       <c r="B418" t="s">
-        <v>1012</v>
+        <v>1400</v>
       </c>
       <c r="F418" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="H418" t="s">
         <v>0</v>
@@ -21979,10 +21982,10 @@
         <v>998</v>
       </c>
       <c r="B419" t="s">
-        <v>1013</v>
+        <v>1401</v>
       </c>
       <c r="F419" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
       <c r="H419" t="s">
         <v>24</v>
@@ -22008,10 +22011,10 @@
         <v>380</v>
       </c>
       <c r="B420" t="s">
-        <v>1014</v>
+        <v>1402</v>
       </c>
       <c r="F420" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="H420" t="s">
         <v>32</v>
@@ -22037,10 +22040,10 @@
         <v>999</v>
       </c>
       <c r="B421" t="s">
-        <v>1015</v>
+        <v>1403</v>
       </c>
       <c r="F421" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="H421" t="s">
         <v>24</v>
@@ -22066,10 +22069,10 @@
         <v>1000</v>
       </c>
       <c r="B422" t="s">
-        <v>1016</v>
+        <v>1404</v>
       </c>
       <c r="F422" t="s">
-        <v>1048</v>
+        <v>1031</v>
       </c>
       <c r="H422" t="s">
         <v>24</v>
@@ -22095,10 +22098,10 @@
         <v>1001</v>
       </c>
       <c r="B423" t="s">
-        <v>1017</v>
+        <v>1405</v>
       </c>
       <c r="F423" t="s">
-        <v>1049</v>
+        <v>1032</v>
       </c>
       <c r="H423" t="s">
         <v>24</v>
@@ -22124,10 +22127,10 @@
         <v>387</v>
       </c>
       <c r="B424" t="s">
-        <v>1018</v>
+        <v>1406</v>
       </c>
       <c r="F424" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
       <c r="H424" t="s">
         <v>24</v>
@@ -22153,10 +22156,10 @@
         <v>387</v>
       </c>
       <c r="B425" t="s">
-        <v>1019</v>
+        <v>1407</v>
       </c>
       <c r="F425" t="s">
-        <v>1051</v>
+        <v>1034</v>
       </c>
       <c r="H425" t="s">
         <v>24</v>
@@ -22182,10 +22185,10 @@
         <v>387</v>
       </c>
       <c r="B426" t="s">
-        <v>1020</v>
+        <v>1408</v>
       </c>
       <c r="F426" t="s">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="H426" t="s">
         <v>24</v>
